--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E07806B1C43E5265A0C3F54CBFF1BAAE7053DE93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_E07806B1C43E5265A0C3F54CBFF1BAAE7053DE93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{007B30AB-E94A-4BEC-82F3-FC0A9BC45E94}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Columna</t>
   </si>
@@ -37,9 +50,6 @@
   </si>
   <si>
     <t>Enunciado de la Historia</t>
-  </si>
-  <si>
-    <t>XX-XXXX-XXXX</t>
   </si>
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
@@ -103,12 +113,123 @@
   <si>
     <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
   </si>
+  <si>
+    <t>HU01</t>
+  </si>
+  <si>
+    <t>HU02</t>
+  </si>
+  <si>
+    <t>HU03</t>
+  </si>
+  <si>
+    <t>HU04</t>
+  </si>
+  <si>
+    <t>HU05</t>
+  </si>
+  <si>
+    <t>HU06</t>
+  </si>
+  <si>
+    <t>HU07</t>
+  </si>
+  <si>
+    <t>HU08</t>
+  </si>
+  <si>
+    <t>HU09</t>
+  </si>
+  <si>
+    <t>HU10</t>
+  </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>HU12</t>
+  </si>
+  <si>
+    <t>HU13</t>
+  </si>
+  <si>
+    <t>HU14</t>
+  </si>
+  <si>
+    <t>Como negocio, necesito iniciar sesión con la finalidad de acceder al sistema y gestionar mi negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como negocio, necesito registrar los clientes que reciclan en mi negocio con la finalidad de mantener un registro de clientes recurrentes y nuevos. </t>
+  </si>
+  <si>
+    <t>Como negocio, necesito registrar la cantidad que recicla un cliente, con la finalidad de validar el reciclaje del cliente para la obtencion de greencoins.</t>
+  </si>
+  <si>
+    <t>Como negocio, necesito ingresar la ubicacion del punto verde, con la finalidad de que mi punto verde sea visible en l aplicación.</t>
+  </si>
+  <si>
+    <t>Como negocio, necesito visualizar los clientes registrados en mi negocio, con la finalidad de agilizar procesos estadisticos y con clientes recurrentes.</t>
+  </si>
+  <si>
+    <t>Como negocio, necesito ingresar ofertas para canjear greencoins, con la finalidad de promover el reciclaje de las personas en mi punto verde.</t>
+  </si>
+  <si>
+    <t>Reg_cliente</t>
+  </si>
+  <si>
+    <t>Reg_reciclaje</t>
+  </si>
+  <si>
+    <t>Ing_pverde</t>
+  </si>
+  <si>
+    <t>Ver_cliente</t>
+  </si>
+  <si>
+    <t>Ing_oferta</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>Sprint 12</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que el sistema pueda diferenciar entre clientes recurrentes y nuevos para generar informes precisos sobre la participación en el reciclaje.</t>
+  </si>
+  <si>
+    <t>Es crucial que el registro de la cantidad reciclada sea preciso y esté vinculado a la cuenta del cliente para garantizar que reciban la cantidad correcta de greencoins.</t>
+  </si>
+  <si>
+    <t>La precisión de la ubicación del punto verde es esencial para que los ciudadanos puedan encontrar fácilmente los puntos de reciclaje a través de la aplicación.</t>
+  </si>
+  <si>
+    <t>La interfaz para visualizar los clientes registrados debe ser intuitiva y proporcionar acceso rápido a la información para facilitar el análisis y la toma de decisiones.</t>
+  </si>
+  <si>
+    <t>Se debe implementar una interfaz amigable para que los negocios puedan agregar, actualizar y eliminar ofertas fácilmente, incentivando así la participación en el reciclaje.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +256,12 @@
       <b/>
       <sz val="16"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -197,6 +324,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,22 +652,22 @@
     <col min="3" max="3" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="39.453125" style="2" customWidth="1"/>
     <col min="10" max="10" width="2.1796875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -542,221 +678,282 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="G14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -781,12 +978,12 @@
   <sheetData>
     <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
@@ -802,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -810,55 +1007,55 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_E07806B1C43E5265A0C3F54CBFF1BAAE7053DE93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{007B30AB-E94A-4BEC-82F3-FC0A9BC45E94}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297C3358-0700-4D17-B92E-9B519C5763E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
   <si>
     <t>Columna</t>
   </si>
@@ -223,6 +218,61 @@
   </si>
   <si>
     <t>Se debe implementar una interfaz amigable para que los negocios puedan agregar, actualizar y eliminar ofertas fácilmente, incentivando así la participación en el reciclaje.</t>
+  </si>
+  <si>
+    <t>Como un administrador, necesito Iniciar sesión y poder acceder a las funcionalidades
+del mismo, con la finalidad de autentificarme en el sistema y acceder a las funcionalidades.</t>
+  </si>
+  <si>
+    <t>Como un administrador, necesito gestionar los negocios, con la finalidad de  registrar nuevos negocios, eliminar negocios existentes, modificar la información de los negocios y visualizas dichos negocios.</t>
+  </si>
+  <si>
+    <t>Como un administrador, necesito Gestionar ofertas, con la finalidad de registrar nuevas ofertas, eliminar ofertas existentes y modificar la información de las ofertas</t>
+  </si>
+  <si>
+    <t>Como un administrador, necesito Parametrización de greencoins, con la finalidad de registrar nuevas ofertas, eliminar ofertas existentes y modificar la información de las ofertas</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>gestion_negocios</t>
+  </si>
+  <si>
+    <t>Gestion_ofertas</t>
+  </si>
+  <si>
+    <t>Parametros_green</t>
+  </si>
+  <si>
+    <t>Inicio_sesion_admin</t>
+  </si>
+  <si>
+    <t>Inicio_sesion_negocio</t>
+  </si>
+  <si>
+    <t>Esta historia de usuario es fundamental ya que la funcionalidad de inicio de sesión es el primer punto de contacto del administrador con el sistema.</t>
+  </si>
+  <si>
+    <t>La gestión de negocios es una funcionalidad central para los administradores, permitiendo mantener actualizada la base de datos de negocios.</t>
+  </si>
+  <si>
+    <t>La gestión de ofertas es crucial para mantener actualizadas las promociones y beneficios ofrecidos a los ciudadanos.</t>
+  </si>
+  <si>
+    <t>Debe permitir al administrador ajustar los parámetros para adaptar el sistema a nuevas políticas o condiciones del mercado.</t>
   </si>
 </sst>
 </file>
@@ -353,9 +403,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,9 +443,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +478,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +530,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,36 +725,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="39.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -696,77 +780,135 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="2:9" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
@@ -792,7 +934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
@@ -818,7 +960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
@@ -844,7 +986,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
@@ -870,7 +1012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
@@ -896,7 +1038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
@@ -910,7 +1052,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
@@ -924,7 +1066,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
@@ -938,7 +1080,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
@@ -963,30 +1105,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="2.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +1152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1018,7 +1160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297C3358-0700-4D17-B92E-9B519C5763E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D447F0-1F92-4202-A9FE-E0A7CD38CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>Columna</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Elaborado por: pmoinformatica.com</t>
-  </si>
-  <si>
-    <t>Como un [Rol], necesito [descripción de la funcionalidad], con la finalidad de [Razón o Resultado]</t>
   </si>
   <si>
     <t>Estado</t>
@@ -273,6 +270,81 @@
   </si>
   <si>
     <t>Debe permitir al administrador ajustar los parámetros para adaptar el sistema a nuevas políticas o condiciones del mercado.</t>
+  </si>
+  <si>
+    <t>HU15</t>
+  </si>
+  <si>
+    <t>HU16</t>
+  </si>
+  <si>
+    <t>Como un ciudadano, necesito registrar mi cuenta, con la finalidad de registrarme en el sistema e inciar sesión</t>
+  </si>
+  <si>
+    <t>reg_ciudadano</t>
+  </si>
+  <si>
+    <t>Como un ciudadano, necesito iniciar sesión, con la finalidad de acceder a las funcionalidades del sistema</t>
+  </si>
+  <si>
+    <t>Como un ciudadano, necesito visualizar los puntos verdes cercanos, con la finalidad de poder reciclar en ellos.</t>
+  </si>
+  <si>
+    <t>Como un ciudadano, necesito visualizar el historial de reciclaje que he realizado, con la finalidad de poder ver a que puntos verdes he ido a reciclar y la cantida de greencoins que se me han asignado en esos puntos verdes.</t>
+  </si>
+  <si>
+    <t>Como un ciudadano, necesito recibir notificaciones, con la finalidad depoder estar al día de las nuevas ofertas y puntos verdes.</t>
+  </si>
+  <si>
+    <t>Como un ciudadano, necesito visualizar las ofertas, con la finalidad de poder visualizar las ofertas vigentes para el canje de los greencoins</t>
+  </si>
+  <si>
+    <t>Inicio_sesion_ciudadano</t>
+  </si>
+  <si>
+    <t>ver_pverdes</t>
+  </si>
+  <si>
+    <t>ver_historial_reciclaje</t>
+  </si>
+  <si>
+    <t>recibir_notificaciones</t>
+  </si>
+  <si>
+    <t>ver_ofertas</t>
+  </si>
+  <si>
+    <t>Sprint 13</t>
+  </si>
+  <si>
+    <t>Sprint 14</t>
+  </si>
+  <si>
+    <t>Sprint 15</t>
+  </si>
+  <si>
+    <t>Sprint 16</t>
+  </si>
+  <si>
+    <t>Sprint 17</t>
+  </si>
+  <si>
+    <t>Sprint 18</t>
+  </si>
+  <si>
+    <t>Se debe verificar que el usuario sea mayor de edad</t>
+  </si>
+  <si>
+    <t>La precisión de las ubicaciones de los puntos verdes cercanos al ciudadano es esencial para que puedan acudir a ellos sin perderse o ir a otras direcciones de manera incorrecta.</t>
+  </si>
+  <si>
+    <t>La interfaz para visualizar los negocios que se ha ido a reciclar debe ser intuitiva y proporcionar información sobre los greencoins obtenidos en cada uno.</t>
+  </si>
+  <si>
+    <t>La entrega de notificaciones tiene que ser en tiempo real.</t>
+  </si>
+  <si>
+    <t>La interfaz para visualizar las ofertas que se pueden canjear debe ser intuitiva y proporcionar información sobre la caducidad de las mismas.</t>
   </si>
 </sst>
 </file>
@@ -403,9 +475,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -443,9 +515,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,26 +550,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,26 +585,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,9 +788,7 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -762,337 +798,435 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="9">
         <v>8</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="9">
         <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="9">
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="9">
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="2:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="9">
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9">
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="9">
         <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="9">
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="9">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1105,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C10" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
@@ -1149,55 +1283,55 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D447F0-1F92-4202-A9FE-E0A7CD38CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BADEA6-9877-46EA-B3F7-A4AE668A9145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,9 +329,6 @@
     <t>Sprint 17</t>
   </si>
   <si>
-    <t>Sprint 18</t>
-  </si>
-  <si>
     <t>Se debe verificar que el usuario sea mayor de edad</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>La interfaz para visualizar las ofertas que se pueden canjear debe ser intuitiva y proporcionar información sobre la caducidad de las mismas.</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>47</v>
@@ -856,10 +856,10 @@
         <v>46</v>
       </c>
       <c r="F6" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>47</v>
@@ -882,10 +882,10 @@
         <v>46</v>
       </c>
       <c r="F7" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>47</v>
@@ -908,10 +908,10 @@
         <v>46</v>
       </c>
       <c r="F8" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>47</v>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>47</v>
@@ -961,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>47</v>
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>47</v>
@@ -1013,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>47</v>
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>47</v>
@@ -1065,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>47</v>
@@ -1091,13 +1091,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>47</v>
@@ -1141,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1167,13 +1167,13 @@
         <v>3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1193,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1219,13 +1219,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C10" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BADEA6-9877-46EA-B3F7-A4AE668A9145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491D9A2-C028-4481-8869-5F2CADAA3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>Columna</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Como negocio, necesito registrar la cantidad que recicla un cliente, con la finalidad de validar el reciclaje del cliente para la obtencion de greencoins.</t>
   </si>
   <si>
-    <t>Como negocio, necesito ingresar la ubicacion del punto verde, con la finalidad de que mi punto verde sea visible en l aplicación.</t>
-  </si>
-  <si>
     <t>Como negocio, necesito visualizar los clientes registrados en mi negocio, con la finalidad de agilizar procesos estadisticos y con clientes recurrentes.</t>
   </si>
   <si>
@@ -191,15 +188,6 @@
   </si>
   <si>
     <t>Sprint 9</t>
-  </si>
-  <si>
-    <t>Sprint 10</t>
-  </si>
-  <si>
-    <t>Sprint 11</t>
-  </si>
-  <si>
-    <t>Sprint 12</t>
   </si>
   <si>
     <t>Se debe asegurar que el sistema pueda diferenciar entre clientes recurrentes y nuevos para generar informes precisos sobre la participación en el reciclaje.</t>
@@ -314,21 +302,6 @@
     <t>ver_ofertas</t>
   </si>
   <si>
-    <t>Sprint 13</t>
-  </si>
-  <si>
-    <t>Sprint 14</t>
-  </si>
-  <si>
-    <t>Sprint 15</t>
-  </si>
-  <si>
-    <t>Sprint 16</t>
-  </si>
-  <si>
-    <t>Sprint 17</t>
-  </si>
-  <si>
     <t>Se debe verificar que el usuario sea mayor de edad</t>
   </si>
   <si>
@@ -345,6 +318,12 @@
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Como negocio, necesito ingresar la ubicacion del punto verde, con la finalidad de que mi punto verde sea visible en la aplicación.</t>
   </si>
 </sst>
 </file>
@@ -763,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +752,7 @@
     <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" style="2" customWidth="1"/>
@@ -821,25 +800,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>46</v>
+        <v>66</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -847,25 +826,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="9">
         <v>5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -873,25 +852,25 @@
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="9">
         <v>5</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -899,25 +878,25 @@
         <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="9">
         <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -928,19 +907,19 @@
         <v>35</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F9" s="9">
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -952,22 +931,22 @@
         <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F10" s="9">
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -978,22 +957,22 @@
         <v>37</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="9">
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1001,25 +980,25 @@
         <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="9">
         <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1027,25 +1006,25 @@
         <v>29</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="9">
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -1053,25 +1032,25 @@
         <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1079,25 +1058,25 @@
         <v>31</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="9">
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1105,22 +1084,22 @@
         <v>32</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -1129,25 +1108,25 @@
         <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>46</v>
+        <v>82</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="9">
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1155,77 +1134,77 @@
         <v>34</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="9">
         <v>3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>46</v>
+        <v>84</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="9">
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>46</v>
+        <v>85</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F20" s="9">
         <v>2</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491D9A2-C028-4481-8869-5F2CADAA3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C491D9A2-C028-4481-8869-5F2CADAA3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3B47C5-78A8-484A-9C0E-763582921CCA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="141">
   <si>
     <t>Columna</t>
   </si>
@@ -325,12 +325,153 @@
   <si>
     <t>Como negocio, necesito ingresar la ubicacion del punto verde, con la finalidad de que mi punto verde sea visible en la aplicación.</t>
   </si>
+  <si>
+    <t>HT01</t>
+  </si>
+  <si>
+    <t>Seguridad y Privacidad</t>
+  </si>
+  <si>
+    <t>Se implementaran medidas de seguridad robustas, incluyendo cifrado de datos, autenticación de usuarios y protección contra vulnerabilidades de seguridad. Se realizaron auditorías de seguridad regulares y se mantuvo un plan de respuesta a incidentes.</t>
+  </si>
+  <si>
+    <t>HT02</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Se optimizara el código de la aplicación para reducir los tiempos de carga y respuesta. Se implementaron técnicas de almacenamiento en caché y se realizaron pruebas exhaustivas de rendimiento para garantizar una experiencia fluida incluso bajo cargas de trabajo pesadas.</t>
+  </si>
+  <si>
+    <t>HT03</t>
+  </si>
+  <si>
+    <t>Escalabilidad</t>
+  </si>
+  <si>
+    <t>Se utilizara una arquitectura escalable en la nube que permitía aumentar los recursos dinámicamente según la demanda. Los componentes de la plataforma fueron diseñados para ser modulares y fácilmente replicables, facilitando la expansión sin comprometer el rendimiento.</t>
+  </si>
+  <si>
+    <t>HT04</t>
+  </si>
+  <si>
+    <t>Usabilidad</t>
+  </si>
+  <si>
+    <t>Se llevara a cabo un extenso trabajo de diseño de interfaz de usuario para crear una experiencia intuitiva y fácil de usar. Se realizaron pruebas de usabilidad con usuarios reales y se proporcionó documentación y soporte en línea para ayudar a los usuarios a familiarizarse con la plataforma.</t>
+  </si>
+  <si>
+    <t>HT05</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>Se implementara una infraestructura de alta disponibilidad con redundancia en todos los niveles. Se utilizaron servicios de alojamiento en la nube con garantía de tiempo de actividad y se estableció un plan de recuperación ante desastres. Se programaron tiempos de inactividad mínimos para mantenimiento y actualizaciones.</t>
+  </si>
+  <si>
+    <t>HT06</t>
+  </si>
+  <si>
+    <t>Diseño del Módulo de Gestión de Entidades (CRUD)</t>
+  </si>
+  <si>
+    <t>Crear un módulo reutilizable que maneje las operaciones CRUD (Crear, Leer, Actualizar, Eliminar) para entidades como negocios, ofertas y clientes. Utilizar patrones de diseño como el patrón Repositorio para abstraer la lógica de acceso a datos y facilitar la escalabilidad y mantenibilidad del código.</t>
+  </si>
+  <si>
+    <t>HT07</t>
+  </si>
+  <si>
+    <t>Integración de Servicios de Geolocalización</t>
+  </si>
+  <si>
+    <t>Incorporar servicios de geolocalización para proporcionar funcionalidades como la visualización de puntos verdes cercanos y el registro de ubicaciones de negocios. Utilizar APIs de servicios de mapas como Google Maps o Mapbox y diseñar una arquitectura de microservicios para gestionar la comunicación entre la aplicación y los servicios externos.</t>
+  </si>
+  <si>
+    <t>HT08</t>
+  </si>
+  <si>
+    <t>Implementación del Sistema de Notificaciones</t>
+  </si>
+  <si>
+    <t>Desarrollar un sistema de notificaciones que permita a los ciudadanos recibir alertas sobre nuevas ofertas y puntos verdes cercanos. Utilizar tecnologías como Firebase Cloud Messaging (FCM) para enviar notificaciones push a dispositivos móviles y diseñar un sistema escalable que gestione la entrega de mensajes de manera eficiente.</t>
+  </si>
+  <si>
+    <t>HT09</t>
+  </si>
+  <si>
+    <t>Implementación de API RESTful</t>
+  </si>
+  <si>
+    <t>Desarrollar una API RESTful que proporcione una interfaz de comunicación entre el frontend y el backend de la aplicación. Utilizar marcos de trabajo como Express.js para Node.js o Spring Boot para Java y seguir las mejores prácticas de diseño de API para garantizar la coherencia, la flexibilidad y la seguridad de la interfaz.</t>
+  </si>
+  <si>
+    <t>HT10</t>
+  </si>
+  <si>
+    <t>Diseño de la Arquitectura de Backend Escalable</t>
+  </si>
+  <si>
+    <t>Definir una arquitectura de backend que pueda escalar de manera horizontal para manejar un crecimiento en la cantidad de usuarios y transacciones.Podemos aplicar patrones como el patrón de Balanceo de Carga y el patrón de Escalabilidad Automática para garantizar el rendimiento y la disponibilidad de la plataforma.</t>
+  </si>
+  <si>
+    <t>seguridad_privacidad</t>
+  </si>
+  <si>
+    <t>rendimiento</t>
+  </si>
+  <si>
+    <t>escalabilidad</t>
+  </si>
+  <si>
+    <t>usabilidad</t>
+  </si>
+  <si>
+    <t>disponibilidad</t>
+  </si>
+  <si>
+    <t>crud</t>
+  </si>
+  <si>
+    <t>geolocalización</t>
+  </si>
+  <si>
+    <t>notificaciones</t>
+  </si>
+  <si>
+    <t>restful</t>
+  </si>
+  <si>
+    <t>escalable</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Muy baja complejidad: La tarea es sencilla y puede ser completada rápidamente con poco esfuerzo y sin necesidad de conocimientos técnicos avanzados.</t>
+  </si>
+  <si>
+    <t>Baja complejidad: La tarea es relativamente sencilla, requiere un esfuerzo moderado y conocimientos técnicos básicos.</t>
+  </si>
+  <si>
+    <t>Complejidad media: La tarea es de complejidad media, requiere un esfuerzo considerable y conocimientos técnicos específicos. Puede implicar la integración de varios componentes.</t>
+  </si>
+  <si>
+    <t>Alta complejidad: La tarea es compleja, requiere un esfuerzo significativo y un alto nivel de conocimientos técnicos. Puede implicar la coordinación entre varios equipos.</t>
+  </si>
+  <si>
+    <t>Muy alta complejidad: La tarea es muy compleja, requiere un esfuerzo muy significativo, un alto nivel de conocimientos técnicos y posiblemente la implementación de nuevas tecnologías o paradigmas. Implica una coordinación estrecha entre múltiples equipos y partes interesadas.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +508,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +545,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -411,11 +575,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -434,6 +650,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -740,36 +981,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I20"/>
+  <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="2"/>
+    <col min="6" max="6" width="11.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="60.26953125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.1796875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="11.453125" style="2"/>
+    <col min="13" max="13" width="73.7265625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:58" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="2:58" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
-    </row>
-    <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="2:58" x14ac:dyDescent="0.35">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="2:58" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -794,8 +1078,21 @@
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="2:58" ht="61.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -820,68 +1117,117 @@
       <c r="I5" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="10"/>
+      <c r="L5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="2:58" ht="58.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="8"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="2:58" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="16">
+        <v>2</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="2:58" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>45</v>
@@ -890,220 +1236,386 @@
         <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="16">
+        <v>3</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="2:58" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="2:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="16">
+        <v>4</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="2:58" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="16">
+        <v>5</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="2:58" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="2:58" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="2:58" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="2:58" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="2:58" ht="58" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="2:58" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+    </row>
+    <row r="17" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
@@ -1128,16 +1640,64 @@
       <c r="I17" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+    </row>
+    <row r="18" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>45</v>
@@ -1146,24 +1706,72 @@
         <v>3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+    </row>
+    <row r="19" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>45</v>
@@ -1172,42 +1780,5014 @@
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="10"/>
+    </row>
+    <row r="20" spans="1:58" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="10"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="10"/>
+    </row>
+    <row r="21" spans="1:58" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+    </row>
+    <row r="22" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+    </row>
+    <row r="23" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+    </row>
+    <row r="24" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+    </row>
+    <row r="25" spans="1:58" ht="87" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+    </row>
+    <row r="26" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+    </row>
+    <row r="27" spans="1:58" ht="87" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
+      <c r="BA27" s="10"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="10"/>
+      <c r="BF27" s="10"/>
+    </row>
+    <row r="28" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="10"/>
+      <c r="BE28" s="10"/>
+      <c r="BF28" s="10"/>
+    </row>
+    <row r="29" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="10"/>
+      <c r="BA29" s="10"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="10"/>
+      <c r="BD29" s="10"/>
+      <c r="BE29" s="10"/>
+      <c r="BF29" s="10"/>
+    </row>
+    <row r="30" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="B30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="10"/>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="10"/>
+      <c r="BF31" s="10"/>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="10"/>
+      <c r="BF32" s="10"/>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10"/>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="10"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="10"/>
+      <c r="BD35" s="10"/>
+      <c r="BE35" s="10"/>
+      <c r="BF35" s="10"/>
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="10"/>
+      <c r="AX36" s="10"/>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="10"/>
+      <c r="BA36" s="10"/>
+      <c r="BB36" s="10"/>
+      <c r="BC36" s="10"/>
+      <c r="BD36" s="10"/>
+      <c r="BE36" s="10"/>
+      <c r="BF36" s="10"/>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="10"/>
+      <c r="AW37" s="10"/>
+      <c r="AX37" s="10"/>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="10"/>
+      <c r="BB37" s="10"/>
+      <c r="BC37" s="10"/>
+      <c r="BD37" s="10"/>
+      <c r="BE37" s="10"/>
+      <c r="BF37" s="10"/>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10"/>
+      <c r="BE38" s="10"/>
+      <c r="BF38" s="10"/>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="10"/>
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="10"/>
+      <c r="BA39" s="10"/>
+      <c r="BB39" s="10"/>
+      <c r="BC39" s="10"/>
+      <c r="BD39" s="10"/>
+      <c r="BE39" s="10"/>
+      <c r="BF39" s="10"/>
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="10"/>
+      <c r="AQ40" s="10"/>
+      <c r="AR40" s="10"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="10"/>
+      <c r="BA40" s="10"/>
+      <c r="BB40" s="10"/>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="10"/>
+      <c r="BE40" s="10"/>
+      <c r="BF40" s="10"/>
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="10"/>
+      <c r="BA41" s="10"/>
+      <c r="BB41" s="10"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="10"/>
+      <c r="BF41" s="10"/>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
+      <c r="AY42" s="10"/>
+      <c r="AZ42" s="10"/>
+      <c r="BA42" s="10"/>
+      <c r="BB42" s="10"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="10"/>
+      <c r="BE42" s="10"/>
+      <c r="BF42" s="10"/>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="10"/>
+      <c r="BA43" s="10"/>
+      <c r="BB43" s="10"/>
+      <c r="BC43" s="10"/>
+      <c r="BD43" s="10"/>
+      <c r="BE43" s="10"/>
+      <c r="BF43" s="10"/>
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="10"/>
+      <c r="AQ44" s="10"/>
+      <c r="AR44" s="10"/>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="10"/>
+      <c r="AV44" s="10"/>
+      <c r="AW44" s="10"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="10"/>
+      <c r="AZ44" s="10"/>
+      <c r="BA44" s="10"/>
+      <c r="BB44" s="10"/>
+      <c r="BC44" s="10"/>
+      <c r="BD44" s="10"/>
+      <c r="BE44" s="10"/>
+      <c r="BF44" s="10"/>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="10"/>
+      <c r="AV45" s="10"/>
+      <c r="AW45" s="10"/>
+      <c r="AX45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="10"/>
+      <c r="BA45" s="10"/>
+      <c r="BB45" s="10"/>
+      <c r="BC45" s="10"/>
+      <c r="BD45" s="10"/>
+      <c r="BE45" s="10"/>
+      <c r="BF45" s="10"/>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="10"/>
+      <c r="AQ46" s="10"/>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
+      <c r="AV46" s="10"/>
+      <c r="AW46" s="10"/>
+      <c r="AX46" s="10"/>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="10"/>
+      <c r="BA46" s="10"/>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="10"/>
+      <c r="BD46" s="10"/>
+      <c r="BE46" s="10"/>
+      <c r="BF46" s="10"/>
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="10"/>
+      <c r="AV47" s="10"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="10"/>
+      <c r="BA47" s="10"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="10"/>
+      <c r="BF47" s="10"/>
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10"/>
+      <c r="AR48" s="10"/>
+      <c r="AS48" s="10"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="10"/>
+      <c r="AV48" s="10"/>
+      <c r="AW48" s="10"/>
+      <c r="AX48" s="10"/>
+      <c r="AY48" s="10"/>
+      <c r="AZ48" s="10"/>
+      <c r="BA48" s="10"/>
+      <c r="BB48" s="10"/>
+      <c r="BC48" s="10"/>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="10"/>
+      <c r="BF48" s="10"/>
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="10"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
+      <c r="AY49" s="10"/>
+      <c r="AZ49" s="10"/>
+      <c r="BA49" s="10"/>
+      <c r="BB49" s="10"/>
+      <c r="BC49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="10"/>
+      <c r="BF49" s="10"/>
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="10"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
+      <c r="AY50" s="10"/>
+      <c r="AZ50" s="10"/>
+      <c r="BA50" s="10"/>
+      <c r="BB50" s="10"/>
+      <c r="BC50" s="10"/>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="10"/>
+      <c r="BF50" s="10"/>
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="10"/>
+      <c r="AQ51" s="10"/>
+      <c r="AR51" s="10"/>
+      <c r="AS51" s="10"/>
+      <c r="AT51" s="10"/>
+      <c r="AU51" s="10"/>
+      <c r="AV51" s="10"/>
+      <c r="AW51" s="10"/>
+      <c r="AX51" s="10"/>
+      <c r="AY51" s="10"/>
+      <c r="AZ51" s="10"/>
+      <c r="BA51" s="10"/>
+      <c r="BB51" s="10"/>
+      <c r="BC51" s="10"/>
+      <c r="BD51" s="10"/>
+      <c r="BE51" s="10"/>
+      <c r="BF51" s="10"/>
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
+      <c r="AQ52" s="10"/>
+      <c r="AR52" s="10"/>
+      <c r="AS52" s="10"/>
+      <c r="AT52" s="10"/>
+      <c r="AU52" s="10"/>
+      <c r="AV52" s="10"/>
+      <c r="AW52" s="10"/>
+      <c r="AX52" s="10"/>
+      <c r="AY52" s="10"/>
+      <c r="AZ52" s="10"/>
+      <c r="BA52" s="10"/>
+      <c r="BB52" s="10"/>
+      <c r="BC52" s="10"/>
+      <c r="BD52" s="10"/>
+      <c r="BE52" s="10"/>
+      <c r="BF52" s="10"/>
+    </row>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="10"/>
+      <c r="AQ53" s="10"/>
+      <c r="AR53" s="10"/>
+      <c r="AS53" s="10"/>
+      <c r="AT53" s="10"/>
+      <c r="AU53" s="10"/>
+      <c r="AV53" s="10"/>
+      <c r="AW53" s="10"/>
+      <c r="AX53" s="10"/>
+      <c r="AY53" s="10"/>
+      <c r="AZ53" s="10"/>
+      <c r="BA53" s="10"/>
+      <c r="BB53" s="10"/>
+      <c r="BC53" s="10"/>
+      <c r="BD53" s="10"/>
+      <c r="BE53" s="10"/>
+      <c r="BF53" s="10"/>
+    </row>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="10"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="10"/>
+      <c r="AO54" s="10"/>
+      <c r="AP54" s="10"/>
+      <c r="AQ54" s="10"/>
+      <c r="AR54" s="10"/>
+      <c r="AS54" s="10"/>
+      <c r="AT54" s="10"/>
+      <c r="AU54" s="10"/>
+      <c r="AV54" s="10"/>
+      <c r="AW54" s="10"/>
+      <c r="AX54" s="10"/>
+      <c r="AY54" s="10"/>
+      <c r="AZ54" s="10"/>
+      <c r="BA54" s="10"/>
+      <c r="BB54" s="10"/>
+      <c r="BC54" s="10"/>
+      <c r="BD54" s="10"/>
+      <c r="BE54" s="10"/>
+      <c r="BF54" s="10"/>
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="10"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="10"/>
+      <c r="AQ55" s="10"/>
+      <c r="AR55" s="10"/>
+      <c r="AS55" s="10"/>
+      <c r="AT55" s="10"/>
+      <c r="AU55" s="10"/>
+      <c r="AV55" s="10"/>
+      <c r="AW55" s="10"/>
+      <c r="AX55" s="10"/>
+      <c r="AY55" s="10"/>
+      <c r="AZ55" s="10"/>
+      <c r="BA55" s="10"/>
+      <c r="BB55" s="10"/>
+      <c r="BC55" s="10"/>
+      <c r="BD55" s="10"/>
+      <c r="BE55" s="10"/>
+      <c r="BF55" s="10"/>
+    </row>
+    <row r="56" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
+      <c r="AQ56" s="10"/>
+      <c r="AR56" s="10"/>
+      <c r="AS56" s="10"/>
+      <c r="AT56" s="10"/>
+      <c r="AU56" s="10"/>
+      <c r="AV56" s="10"/>
+      <c r="AW56" s="10"/>
+      <c r="AX56" s="10"/>
+      <c r="AY56" s="10"/>
+      <c r="AZ56" s="10"/>
+      <c r="BA56" s="10"/>
+      <c r="BB56" s="10"/>
+      <c r="BC56" s="10"/>
+      <c r="BD56" s="10"/>
+      <c r="BE56" s="10"/>
+      <c r="BF56" s="10"/>
+    </row>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="10"/>
+      <c r="AQ57" s="10"/>
+      <c r="AR57" s="10"/>
+      <c r="AS57" s="10"/>
+      <c r="AT57" s="10"/>
+      <c r="AU57" s="10"/>
+      <c r="AV57" s="10"/>
+      <c r="AW57" s="10"/>
+      <c r="AX57" s="10"/>
+      <c r="AY57" s="10"/>
+      <c r="AZ57" s="10"/>
+      <c r="BA57" s="10"/>
+      <c r="BB57" s="10"/>
+      <c r="BC57" s="10"/>
+      <c r="BD57" s="10"/>
+      <c r="BE57" s="10"/>
+      <c r="BF57" s="10"/>
+    </row>
+    <row r="58" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="10"/>
+      <c r="AS58" s="10"/>
+      <c r="AT58" s="10"/>
+      <c r="AU58" s="10"/>
+      <c r="AV58" s="10"/>
+      <c r="AW58" s="10"/>
+      <c r="AX58" s="10"/>
+      <c r="AY58" s="10"/>
+      <c r="AZ58" s="10"/>
+      <c r="BA58" s="10"/>
+      <c r="BB58" s="10"/>
+      <c r="BC58" s="10"/>
+      <c r="BD58" s="10"/>
+      <c r="BE58" s="10"/>
+      <c r="BF58" s="10"/>
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="10"/>
+      <c r="AO59" s="10"/>
+      <c r="AP59" s="10"/>
+      <c r="AQ59" s="10"/>
+      <c r="AR59" s="10"/>
+      <c r="AS59" s="10"/>
+      <c r="AT59" s="10"/>
+      <c r="AU59" s="10"/>
+      <c r="AV59" s="10"/>
+      <c r="AW59" s="10"/>
+      <c r="AX59" s="10"/>
+      <c r="AY59" s="10"/>
+      <c r="AZ59" s="10"/>
+      <c r="BA59" s="10"/>
+      <c r="BB59" s="10"/>
+      <c r="BC59" s="10"/>
+      <c r="BD59" s="10"/>
+      <c r="BE59" s="10"/>
+      <c r="BF59" s="10"/>
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+      <c r="AR60" s="10"/>
+      <c r="AS60" s="10"/>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="10"/>
+      <c r="AV60" s="10"/>
+      <c r="AW60" s="10"/>
+      <c r="AX60" s="10"/>
+      <c r="AY60" s="10"/>
+      <c r="AZ60" s="10"/>
+      <c r="BA60" s="10"/>
+      <c r="BB60" s="10"/>
+      <c r="BC60" s="10"/>
+      <c r="BD60" s="10"/>
+      <c r="BE60" s="10"/>
+      <c r="BF60" s="10"/>
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="10"/>
+      <c r="AK61" s="10"/>
+      <c r="AL61" s="10"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="10"/>
+      <c r="AO61" s="10"/>
+      <c r="AP61" s="10"/>
+      <c r="AQ61" s="10"/>
+      <c r="AR61" s="10"/>
+      <c r="AS61" s="10"/>
+      <c r="AT61" s="10"/>
+      <c r="AU61" s="10"/>
+      <c r="AV61" s="10"/>
+      <c r="AW61" s="10"/>
+      <c r="AX61" s="10"/>
+      <c r="AY61" s="10"/>
+      <c r="AZ61" s="10"/>
+      <c r="BA61" s="10"/>
+      <c r="BB61" s="10"/>
+      <c r="BC61" s="10"/>
+      <c r="BD61" s="10"/>
+      <c r="BE61" s="10"/>
+      <c r="BF61" s="10"/>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="10"/>
+      <c r="AH62" s="10"/>
+      <c r="AI62" s="10"/>
+      <c r="AJ62" s="10"/>
+      <c r="AK62" s="10"/>
+      <c r="AL62" s="10"/>
+      <c r="AM62" s="10"/>
+      <c r="AN62" s="10"/>
+      <c r="AO62" s="10"/>
+      <c r="AP62" s="10"/>
+      <c r="AQ62" s="10"/>
+      <c r="AR62" s="10"/>
+      <c r="AS62" s="10"/>
+      <c r="AT62" s="10"/>
+      <c r="AU62" s="10"/>
+      <c r="AV62" s="10"/>
+      <c r="AW62" s="10"/>
+      <c r="AX62" s="10"/>
+      <c r="AY62" s="10"/>
+      <c r="AZ62" s="10"/>
+      <c r="BA62" s="10"/>
+      <c r="BB62" s="10"/>
+      <c r="BC62" s="10"/>
+      <c r="BD62" s="10"/>
+      <c r="BE62" s="10"/>
+      <c r="BF62" s="10"/>
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="10"/>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="10"/>
+      <c r="AO63" s="10"/>
+      <c r="AP63" s="10"/>
+      <c r="AQ63" s="10"/>
+      <c r="AR63" s="10"/>
+      <c r="AS63" s="10"/>
+      <c r="AT63" s="10"/>
+      <c r="AU63" s="10"/>
+      <c r="AV63" s="10"/>
+      <c r="AW63" s="10"/>
+      <c r="AX63" s="10"/>
+      <c r="AY63" s="10"/>
+      <c r="AZ63" s="10"/>
+      <c r="BA63" s="10"/>
+      <c r="BB63" s="10"/>
+      <c r="BC63" s="10"/>
+      <c r="BD63" s="10"/>
+      <c r="BE63" s="10"/>
+      <c r="BF63" s="10"/>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="10"/>
+      <c r="AO64" s="10"/>
+      <c r="AP64" s="10"/>
+      <c r="AQ64" s="10"/>
+      <c r="AR64" s="10"/>
+      <c r="AS64" s="10"/>
+      <c r="AT64" s="10"/>
+      <c r="AU64" s="10"/>
+      <c r="AV64" s="10"/>
+      <c r="AW64" s="10"/>
+      <c r="AX64" s="10"/>
+      <c r="AY64" s="10"/>
+      <c r="AZ64" s="10"/>
+      <c r="BA64" s="10"/>
+      <c r="BB64" s="10"/>
+      <c r="BC64" s="10"/>
+      <c r="BD64" s="10"/>
+      <c r="BE64" s="10"/>
+      <c r="BF64" s="10"/>
+    </row>
+    <row r="65" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10"/>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="10"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="10"/>
+      <c r="AO65" s="10"/>
+      <c r="AP65" s="10"/>
+      <c r="AQ65" s="10"/>
+      <c r="AR65" s="10"/>
+      <c r="AS65" s="10"/>
+      <c r="AT65" s="10"/>
+      <c r="AU65" s="10"/>
+      <c r="AV65" s="10"/>
+      <c r="AW65" s="10"/>
+      <c r="AX65" s="10"/>
+      <c r="AY65" s="10"/>
+      <c r="AZ65" s="10"/>
+      <c r="BA65" s="10"/>
+      <c r="BB65" s="10"/>
+      <c r="BC65" s="10"/>
+      <c r="BD65" s="10"/>
+      <c r="BE65" s="10"/>
+      <c r="BF65" s="10"/>
+    </row>
+    <row r="66" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="10"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="10"/>
+      <c r="AK66" s="10"/>
+      <c r="AL66" s="10"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="10"/>
+      <c r="AO66" s="10"/>
+      <c r="AP66" s="10"/>
+      <c r="AQ66" s="10"/>
+      <c r="AR66" s="10"/>
+      <c r="AS66" s="10"/>
+      <c r="AT66" s="10"/>
+      <c r="AU66" s="10"/>
+      <c r="AV66" s="10"/>
+      <c r="AW66" s="10"/>
+      <c r="AX66" s="10"/>
+      <c r="AY66" s="10"/>
+      <c r="AZ66" s="10"/>
+      <c r="BA66" s="10"/>
+      <c r="BB66" s="10"/>
+      <c r="BC66" s="10"/>
+      <c r="BD66" s="10"/>
+      <c r="BE66" s="10"/>
+      <c r="BF66" s="10"/>
+    </row>
+    <row r="67" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
+      <c r="AQ67" s="10"/>
+      <c r="AR67" s="10"/>
+      <c r="AS67" s="10"/>
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="10"/>
+      <c r="AW67" s="10"/>
+      <c r="AX67" s="10"/>
+      <c r="AY67" s="10"/>
+      <c r="AZ67" s="10"/>
+      <c r="BA67" s="10"/>
+      <c r="BB67" s="10"/>
+      <c r="BC67" s="10"/>
+      <c r="BD67" s="10"/>
+      <c r="BE67" s="10"/>
+      <c r="BF67" s="10"/>
+    </row>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="10"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="10"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="10"/>
+      <c r="AO68" s="10"/>
+      <c r="AP68" s="10"/>
+      <c r="AQ68" s="10"/>
+      <c r="AR68" s="10"/>
+      <c r="AS68" s="10"/>
+      <c r="AT68" s="10"/>
+      <c r="AU68" s="10"/>
+      <c r="AV68" s="10"/>
+      <c r="AW68" s="10"/>
+      <c r="AX68" s="10"/>
+      <c r="AY68" s="10"/>
+      <c r="AZ68" s="10"/>
+      <c r="BA68" s="10"/>
+      <c r="BB68" s="10"/>
+      <c r="BC68" s="10"/>
+      <c r="BD68" s="10"/>
+      <c r="BE68" s="10"/>
+      <c r="BF68" s="10"/>
+    </row>
+    <row r="69" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="10"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
+      <c r="AO69" s="10"/>
+      <c r="AP69" s="10"/>
+      <c r="AQ69" s="10"/>
+      <c r="AR69" s="10"/>
+      <c r="AS69" s="10"/>
+      <c r="AT69" s="10"/>
+      <c r="AU69" s="10"/>
+      <c r="AV69" s="10"/>
+      <c r="AW69" s="10"/>
+      <c r="AX69" s="10"/>
+      <c r="AY69" s="10"/>
+      <c r="AZ69" s="10"/>
+      <c r="BA69" s="10"/>
+      <c r="BB69" s="10"/>
+      <c r="BC69" s="10"/>
+      <c r="BD69" s="10"/>
+      <c r="BE69" s="10"/>
+      <c r="BF69" s="10"/>
+    </row>
+    <row r="70" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="10"/>
+      <c r="AO70" s="10"/>
+      <c r="AP70" s="10"/>
+      <c r="AQ70" s="10"/>
+      <c r="AR70" s="10"/>
+      <c r="AS70" s="10"/>
+      <c r="AT70" s="10"/>
+      <c r="AU70" s="10"/>
+      <c r="AV70" s="10"/>
+      <c r="AW70" s="10"/>
+      <c r="AX70" s="10"/>
+      <c r="AY70" s="10"/>
+      <c r="AZ70" s="10"/>
+      <c r="BA70" s="10"/>
+      <c r="BB70" s="10"/>
+      <c r="BC70" s="10"/>
+      <c r="BD70" s="10"/>
+      <c r="BE70" s="10"/>
+      <c r="BF70" s="10"/>
+    </row>
+    <row r="71" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="10"/>
+      <c r="AQ71" s="10"/>
+      <c r="AR71" s="10"/>
+      <c r="AS71" s="10"/>
+      <c r="AT71" s="10"/>
+      <c r="AU71" s="10"/>
+      <c r="AV71" s="10"/>
+      <c r="AW71" s="10"/>
+      <c r="AX71" s="10"/>
+      <c r="AY71" s="10"/>
+      <c r="AZ71" s="10"/>
+      <c r="BA71" s="10"/>
+      <c r="BB71" s="10"/>
+      <c r="BC71" s="10"/>
+      <c r="BD71" s="10"/>
+      <c r="BE71" s="10"/>
+      <c r="BF71" s="10"/>
+    </row>
+    <row r="72" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="10"/>
+    </row>
+    <row r="73" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="10"/>
+      <c r="AG73" s="10"/>
+    </row>
+    <row r="74" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+    </row>
+    <row r="75" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+    </row>
+    <row r="76" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="10"/>
+    </row>
+    <row r="77" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="10"/>
+    </row>
+    <row r="78" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="10"/>
+      <c r="AF78" s="10"/>
+      <c r="AG78" s="10"/>
+    </row>
+    <row r="79" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+    </row>
+    <row r="80" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="10"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="10"/>
+      <c r="AF82" s="10"/>
+      <c r="AG82" s="10"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="10"/>
+      <c r="AB83" s="10"/>
+      <c r="AC83" s="10"/>
+      <c r="AD83" s="10"/>
+      <c r="AE83" s="10"/>
+      <c r="AF83" s="10"/>
+      <c r="AG83" s="10"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="10"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="10"/>
+      <c r="AF84" s="10"/>
+      <c r="AG84" s="10"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85" s="10"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
+      <c r="AG85" s="10"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="10"/>
+      <c r="AF86" s="10"/>
+      <c r="AG86" s="10"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="10"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
+      <c r="AA89" s="10"/>
+      <c r="AB89" s="10"/>
+      <c r="AC89" s="10"/>
+      <c r="AD89" s="10"/>
+      <c r="AE89" s="10"/>
+      <c r="AF89" s="10"/>
+      <c r="AG89" s="10"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="10"/>
+      <c r="AB90" s="10"/>
+      <c r="AC90" s="10"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="10"/>
+      <c r="AF90" s="10"/>
+      <c r="AG90" s="10"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="10"/>
+      <c r="AB91" s="10"/>
+      <c r="AC91" s="10"/>
+      <c r="AD91" s="10"/>
+      <c r="AE91" s="10"/>
+      <c r="AF91" s="10"/>
+      <c r="AG91" s="10"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="10"/>
+      <c r="AC92" s="10"/>
+      <c r="AD92" s="10"/>
+      <c r="AE92" s="10"/>
+      <c r="AF92" s="10"/>
+      <c r="AG92" s="10"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="10"/>
+      <c r="AC93" s="10"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="10"/>
+      <c r="AF93" s="10"/>
+      <c r="AG93" s="10"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="10"/>
+      <c r="AB94" s="10"/>
+      <c r="AC94" s="10"/>
+      <c r="AD94" s="10"/>
+      <c r="AE94" s="10"/>
+      <c r="AF94" s="10"/>
+      <c r="AG94" s="10"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="10"/>
+      <c r="AB95" s="10"/>
+      <c r="AC95" s="10"/>
+      <c r="AD95" s="10"/>
+      <c r="AE95" s="10"/>
+      <c r="AF95" s="10"/>
+      <c r="AG95" s="10"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="10"/>
+      <c r="AB96" s="10"/>
+      <c r="AC96" s="10"/>
+      <c r="AD96" s="10"/>
+      <c r="AE96" s="10"/>
+      <c r="AF96" s="10"/>
+      <c r="AG96" s="10"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
+      <c r="AE97" s="10"/>
+      <c r="AF97" s="10"/>
+      <c r="AG97" s="10"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="10"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="10"/>
+      <c r="AC99" s="10"/>
+      <c r="AD99" s="10"/>
+      <c r="AE99" s="10"/>
+      <c r="AF99" s="10"/>
+      <c r="AG99" s="10"/>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="10"/>
+      <c r="AB100" s="10"/>
+      <c r="AC100" s="10"/>
+      <c r="AD100" s="10"/>
+      <c r="AE100" s="10"/>
+      <c r="AF100" s="10"/>
+      <c r="AG100" s="10"/>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="10"/>
+      <c r="AB101" s="10"/>
+      <c r="AC101" s="10"/>
+      <c r="AD101" s="10"/>
+      <c r="AE101" s="10"/>
+      <c r="AF101" s="10"/>
+      <c r="AG101" s="10"/>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="10"/>
+      <c r="AB102" s="10"/>
+      <c r="AC102" s="10"/>
+      <c r="AD102" s="10"/>
+      <c r="AE102" s="10"/>
+      <c r="AF102" s="10"/>
+      <c r="AG102" s="10"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="10"/>
+      <c r="AB103" s="10"/>
+      <c r="AC103" s="10"/>
+      <c r="AD103" s="10"/>
+      <c r="AE103" s="10"/>
+      <c r="AF103" s="10"/>
+      <c r="AG103" s="10"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+      <c r="Z104" s="10"/>
+      <c r="AA104" s="10"/>
+      <c r="AB104" s="10"/>
+      <c r="AC104" s="10"/>
+      <c r="AD104" s="10"/>
+      <c r="AE104" s="10"/>
+      <c r="AF104" s="10"/>
+      <c r="AG104" s="10"/>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+      <c r="Z105" s="10"/>
+      <c r="AA105" s="10"/>
+      <c r="AB105" s="10"/>
+      <c r="AC105" s="10"/>
+      <c r="AD105" s="10"/>
+      <c r="AE105" s="10"/>
+      <c r="AF105" s="10"/>
+      <c r="AG105" s="10"/>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="10"/>
+      <c r="AA106" s="10"/>
+      <c r="AB106" s="10"/>
+      <c r="AC106" s="10"/>
+      <c r="AD106" s="10"/>
+      <c r="AE106" s="10"/>
+      <c r="AF106" s="10"/>
+      <c r="AG106" s="10"/>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="10"/>
+      <c r="Z107" s="10"/>
+      <c r="AA107" s="10"/>
+      <c r="AB107" s="10"/>
+      <c r="AC107" s="10"/>
+      <c r="AD107" s="10"/>
+      <c r="AE107" s="10"/>
+      <c r="AF107" s="10"/>
+      <c r="AG107" s="10"/>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="10"/>
+      <c r="Z108" s="10"/>
+      <c r="AA108" s="10"/>
+      <c r="AB108" s="10"/>
+      <c r="AC108" s="10"/>
+      <c r="AD108" s="10"/>
+      <c r="AE108" s="10"/>
+      <c r="AF108" s="10"/>
+      <c r="AG108" s="10"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="10"/>
+      <c r="Z109" s="10"/>
+      <c r="AA109" s="10"/>
+      <c r="AB109" s="10"/>
+      <c r="AC109" s="10"/>
+      <c r="AD109" s="10"/>
+      <c r="AE109" s="10"/>
+      <c r="AF109" s="10"/>
+      <c r="AG109" s="10"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+      <c r="Z110" s="10"/>
+      <c r="AA110" s="10"/>
+      <c r="AB110" s="10"/>
+      <c r="AC110" s="10"/>
+      <c r="AD110" s="10"/>
+      <c r="AE110" s="10"/>
+      <c r="AF110" s="10"/>
+      <c r="AG110" s="10"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+      <c r="Z111" s="10"/>
+      <c r="AA111" s="10"/>
+      <c r="AB111" s="10"/>
+      <c r="AC111" s="10"/>
+      <c r="AD111" s="10"/>
+      <c r="AE111" s="10"/>
+      <c r="AF111" s="10"/>
+      <c r="AG111" s="10"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+      <c r="Z112" s="10"/>
+      <c r="AA112" s="10"/>
+      <c r="AB112" s="10"/>
+      <c r="AC112" s="10"/>
+      <c r="AD112" s="10"/>
+      <c r="AE112" s="10"/>
+      <c r="AF112" s="10"/>
+      <c r="AG112" s="10"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="10"/>
+      <c r="Z113" s="10"/>
+      <c r="AA113" s="10"/>
+      <c r="AB113" s="10"/>
+      <c r="AC113" s="10"/>
+      <c r="AD113" s="10"/>
+      <c r="AE113" s="10"/>
+      <c r="AF113" s="10"/>
+      <c r="AG113" s="10"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="10"/>
+      <c r="Z114" s="10"/>
+      <c r="AA114" s="10"/>
+      <c r="AB114" s="10"/>
+      <c r="AC114" s="10"/>
+      <c r="AD114" s="10"/>
+      <c r="AE114" s="10"/>
+      <c r="AF114" s="10"/>
+      <c r="AG114" s="10"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="10"/>
+      <c r="Z115" s="10"/>
+      <c r="AA115" s="10"/>
+      <c r="AB115" s="10"/>
+      <c r="AC115" s="10"/>
+      <c r="AD115" s="10"/>
+      <c r="AE115" s="10"/>
+      <c r="AF115" s="10"/>
+      <c r="AG115" s="10"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="10"/>
+      <c r="Z116" s="10"/>
+      <c r="AA116" s="10"/>
+      <c r="AB116" s="10"/>
+      <c r="AC116" s="10"/>
+      <c r="AD116" s="10"/>
+      <c r="AE116" s="10"/>
+      <c r="AF116" s="10"/>
+      <c r="AG116" s="10"/>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="10"/>
+      <c r="Z117" s="10"/>
+      <c r="AA117" s="10"/>
+      <c r="AB117" s="10"/>
+      <c r="AC117" s="10"/>
+      <c r="AD117" s="10"/>
+      <c r="AE117" s="10"/>
+      <c r="AF117" s="10"/>
+      <c r="AG117" s="10"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="10"/>
+      <c r="V118" s="10"/>
+      <c r="W118" s="10"/>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="10"/>
+      <c r="Z118" s="10"/>
+      <c r="AA118" s="10"/>
+      <c r="AB118" s="10"/>
+      <c r="AC118" s="10"/>
+      <c r="AD118" s="10"/>
+      <c r="AE118" s="10"/>
+      <c r="AF118" s="10"/>
+      <c r="AG118" s="10"/>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="10"/>
+      <c r="V119" s="10"/>
+      <c r="W119" s="10"/>
+      <c r="X119" s="10"/>
+      <c r="Y119" s="10"/>
+      <c r="Z119" s="10"/>
+      <c r="AA119" s="10"/>
+      <c r="AB119" s="10"/>
+      <c r="AC119" s="10"/>
+      <c r="AD119" s="10"/>
+      <c r="AE119" s="10"/>
+      <c r="AF119" s="10"/>
+      <c r="AG119" s="10"/>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10"/>
+      <c r="V120" s="10"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="10"/>
+      <c r="Z120" s="10"/>
+      <c r="AA120" s="10"/>
+      <c r="AB120" s="10"/>
+      <c r="AC120" s="10"/>
+      <c r="AD120" s="10"/>
+      <c r="AE120" s="10"/>
+      <c r="AF120" s="10"/>
+      <c r="AG120" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:I20">
+    <sortCondition ref="G4:G20"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
@@ -1222,26 +6802,26 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1257,7 +6837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +6845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +6853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +6861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +6869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +6877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +6885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{C491D9A2-C028-4481-8869-5F2CADAA3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0792E3F6-00BA-47BC-A28B-DC73E931D98B}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{C491D9A2-C028-4481-8869-5F2CADAA3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB50784-EB23-4C2A-AA07-4FC609A095AA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -622,9 +622,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -945,7 +942,7 @@
   <dimension ref="A1:BF120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1325,7 +1322,7 @@
       <c r="W11"/>
     </row>
     <row r="12" spans="2:58" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1465,7 +1462,7 @@
       <c r="W15"/>
     </row>
     <row r="16" spans="2:58" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1550,7 +1547,7 @@
       <c r="H17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K17"/>
@@ -1620,7 +1617,7 @@
       <c r="H18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>91</v>
       </c>
       <c r="K18"/>
@@ -1883,7 +1880,7 @@
       <c r="BF21"/>
     </row>
     <row r="22" spans="1:58" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2027,7 +2024,7 @@
       <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="7"/>
@@ -2171,7 +2168,7 @@
       <c r="B26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="7"/>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{C491D9A2-C028-4481-8869-5F2CADAA3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB50784-EB23-4C2A-AA07-4FC609A095AA}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{C491D9A2-C028-4481-8869-5F2CADAA3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5286C11A-A45F-4EE5-958B-7A4FD3F2768C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>36</v>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{C491D9A2-C028-4481-8869-5F2CADAA3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5286C11A-A45F-4EE5-958B-7A4FD3F2768C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D4A3C3-EAA0-49F8-88EE-5E92328F6FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$I$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
   <si>
     <t>Columna</t>
   </si>
@@ -268,9 +273,6 @@
     <t>Desarrollar el sistema de autenticación para administradores, negocios y ciudadanos. Implementar el almacenamiento seguro de credenciales, la gestión de sesiones y la protección de rutas.</t>
   </si>
   <si>
-    <t>Desarrollo de Endpoints CRUD para Negocios</t>
-  </si>
-  <si>
     <t>Crear los endpoints para la gestión de negocios (crear, leer, actualizar, eliminar). Implementar las validaciones necesarias y asegurar la protección de datos. Integrar con el frontend para permitir a los administradores gestionar los negocios.</t>
   </si>
   <si>
@@ -404,13 +406,55 @@
   </si>
   <si>
     <t>Sprint 14</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>22/05/2024 - 28/05/2024</t>
+  </si>
+  <si>
+    <t>SPRINT</t>
+  </si>
+  <si>
+    <t>DURACIÓN</t>
+  </si>
+  <si>
+    <t>29/05/2024 - 04/06/2024</t>
+  </si>
+  <si>
+    <t>05/06/2024 - 11/06/2024</t>
+  </si>
+  <si>
+    <t>12/06/2024 - 18/06/2024</t>
+  </si>
+  <si>
+    <t>19/06/2024 - 25/06/2024</t>
+  </si>
+  <si>
+    <t>26/06/2024 - 02/07/2024</t>
+  </si>
+  <si>
+    <t>03/07/2024 -09/07/2024</t>
+  </si>
+  <si>
+    <t>10/07/2024 -16/07/2025</t>
+  </si>
+  <si>
+    <t>17/07/2024 23/07/2026</t>
+  </si>
+  <si>
+    <t>Desarrollo de Endpoints CRUD</t>
+  </si>
+  <si>
+    <t>Sprint 01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +507,14 @@
       <sz val="9.6"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -570,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -628,7 +680,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,10 +705,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -941,28 +996,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="63" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="73" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.08984375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="11.453125" style="2"/>
-    <col min="13" max="13" width="73.7265625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="11.453125" style="2"/>
+    <col min="10" max="10" width="5.109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="2"/>
+    <col min="13" max="13" width="73.77734375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="11.44140625" style="2"/>
+    <col min="16" max="16" width="24.88671875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:58" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:58" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
@@ -980,7 +1037,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="2:58" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:58" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -996,7 +1053,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:58" x14ac:dyDescent="0.3">
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1011,7 +1068,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:58" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:58" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1040,8 +1097,8 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -1050,7 +1107,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="2:58" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:58" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
@@ -1059,13 +1116,13 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>36</v>
@@ -1081,8 +1138,12 @@
         <v>59</v>
       </c>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
+      <c r="O5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -1091,7 +1152,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="2:58" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:58" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>49</v>
       </c>
@@ -1100,11 +1161,11 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>36</v>
@@ -1120,8 +1181,12 @@
         <v>60</v>
       </c>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
+      <c r="O6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
@@ -1130,7 +1195,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="2:58" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:58" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1204,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
@@ -1159,8 +1224,12 @@
         <v>61</v>
       </c>
       <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
+      <c r="O7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
@@ -1169,12 +1238,12 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="2:58" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:58" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
@@ -1182,13 +1251,13 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="15">
@@ -1198,8 +1267,12 @@
         <v>62</v>
       </c>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+      <c r="O8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
@@ -1208,12 +1281,12 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="2:58" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:58" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
@@ -1227,7 +1300,7 @@
         <v>36</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="15">
@@ -1237,8 +1310,12 @@
         <v>63</v>
       </c>
       <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
+      <c r="O9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
@@ -1247,27 +1324,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="2:58" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>72</v>
-      </c>
+    <row r="10" spans="2:58" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K10"/>
       <c r="L10" s="15">
         <v>5</v>
@@ -1276,8 +1333,12 @@
         <v>64</v>
       </c>
       <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
+      <c r="O10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
@@ -1286,33 +1347,37 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="2:58" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:58" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>87</v>
+      <c r="I11" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
+      <c r="O11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -1321,12 +1386,12 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="2:58" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>31</v>
+    <row r="12" spans="2:58" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="9" t="s">
@@ -1334,20 +1399,22 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
+      <c r="O12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
@@ -1356,33 +1423,37 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="2:58" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="9"/>
+    <row r="13" spans="2:58" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>72</v>
+      <c r="I13" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
+      <c r="O13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
@@ -1391,12 +1462,12 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="2:58" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:58" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
@@ -1404,20 +1475,24 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>78</v>
+      <c r="I14" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
+      <c r="O14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>131</v>
+      </c>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
@@ -1426,12 +1501,12 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="2:58" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:58" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
@@ -1445,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -1461,24 +1536,26 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="2:58" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+    <row r="16" spans="2:58" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>110</v>
+      <c r="I16" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -1529,17 +1606,15 @@
       <c r="BE16"/>
       <c r="BF16"/>
     </row>
-    <row r="17" spans="1:58" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:58" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>40</v>
@@ -1547,8 +1622,8 @@
       <c r="H17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>89</v>
+      <c r="I17" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -1599,12 +1674,12 @@
       <c r="BE17"/>
       <c r="BF17"/>
     </row>
-    <row r="18" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="9" t="s">
@@ -1612,13 +1687,13 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>91</v>
+      <c r="I18" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -1669,26 +1744,26 @@
       <c r="BE18"/>
       <c r="BF18"/>
     </row>
-    <row r="19" spans="1:58" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="9"/>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>96</v>
+      <c r="I19" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -1739,12 +1814,12 @@
       <c r="BE19"/>
       <c r="BF19"/>
     </row>
-    <row r="20" spans="1:58" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>81</v>
+    <row r="20" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
@@ -1752,13 +1827,13 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>82</v>
+      <c r="I20" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -1809,12 +1884,12 @@
       <c r="BE20"/>
       <c r="BF20"/>
     </row>
-    <row r="21" spans="1:58" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>83</v>
+    <row r="21" spans="1:58" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
@@ -1822,13 +1897,13 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>84</v>
+      <c r="I21" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -1879,24 +1954,26 @@
       <c r="BE21"/>
       <c r="BF21"/>
     </row>
-    <row r="22" spans="1:58" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+    <row r="22" spans="1:58" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>98</v>
+      <c r="I22" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -1948,26 +2025,24 @@
       <c r="BE22"/>
       <c r="BF22"/>
     </row>
-    <row r="23" spans="1:58" ht="58" x14ac:dyDescent="0.35">
-      <c r="B23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="9"/>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>92</v>
+      <c r="I23" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -2019,27 +2094,27 @@
       <c r="BE23"/>
       <c r="BF23"/>
     </row>
-    <row r="24" spans="1:58" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:58" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
-      <c r="B24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="7"/>
+      <c r="B24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>94</v>
+      <c r="I24" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -2091,27 +2166,27 @@
       <c r="BE24"/>
       <c r="BF24"/>
     </row>
-    <row r="25" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -2163,13 +2238,13 @@
       <c r="BE25"/>
       <c r="BF25"/>
     </row>
-    <row r="26" spans="1:58" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>103</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="9" t="s">
@@ -2177,13 +2252,13 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -2235,13 +2310,13 @@
       <c r="BE26"/>
       <c r="BF26"/>
     </row>
-    <row r="27" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>105</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="9" t="s">
@@ -2249,13 +2324,13 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -2307,13 +2382,13 @@
       <c r="BE27"/>
       <c r="BF27"/>
     </row>
-    <row r="28" spans="1:58" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:58" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28" s="11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9" t="s">
@@ -2321,13 +2396,13 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -2379,25 +2454,27 @@
       <c r="BE28"/>
       <c r="BF28"/>
     </row>
-    <row r="29" spans="1:58" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A29"/>
-      <c r="B29" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>112</v>
+      <c r="B29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="10"/>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>114</v>
+      <c r="I29" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -2449,27 +2526,25 @@
       <c r="BE29"/>
       <c r="BF29"/>
     </row>
-    <row r="30" spans="1:58" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>113</v>
-      </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="10"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -2521,16 +2596,28 @@
       <c r="BE30"/>
       <c r="BF30"/>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="B31" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -2581,7 +2668,7 @@
       <c r="BE31"/>
       <c r="BF31"/>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2641,7 +2728,7 @@
       <c r="BE32"/>
       <c r="BF32"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2701,7 +2788,7 @@
       <c r="BE33"/>
       <c r="BF33"/>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2761,7 +2848,7 @@
       <c r="BE34"/>
       <c r="BF34"/>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2821,7 +2908,7 @@
       <c r="BE35"/>
       <c r="BF35"/>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2881,7 +2968,7 @@
       <c r="BE36"/>
       <c r="BF36"/>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2941,7 +3028,7 @@
       <c r="BE37"/>
       <c r="BF37"/>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3001,7 +3088,7 @@
       <c r="BE38"/>
       <c r="BF38"/>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -3061,7 +3148,7 @@
       <c r="BE39"/>
       <c r="BF39"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -3121,7 +3208,7 @@
       <c r="BE40"/>
       <c r="BF40"/>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -3181,7 +3268,7 @@
       <c r="BE41"/>
       <c r="BF41"/>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -3241,7 +3328,7 @@
       <c r="BE42"/>
       <c r="BF42"/>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -3301,7 +3388,7 @@
       <c r="BE43"/>
       <c r="BF43"/>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -3361,7 +3448,7 @@
       <c r="BE44"/>
       <c r="BF44"/>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -3421,7 +3508,7 @@
       <c r="BE45"/>
       <c r="BF45"/>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -3481,7 +3568,7 @@
       <c r="BE46"/>
       <c r="BF46"/>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3541,7 +3628,7 @@
       <c r="BE47"/>
       <c r="BF47"/>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -3601,7 +3688,7 @@
       <c r="BE48"/>
       <c r="BF48"/>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -3661,7 +3748,7 @@
       <c r="BE49"/>
       <c r="BF49"/>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3721,7 +3808,7 @@
       <c r="BE50"/>
       <c r="BF50"/>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -3781,7 +3868,7 @@
       <c r="BE51"/>
       <c r="BF51"/>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3841,7 +3928,7 @@
       <c r="BE52"/>
       <c r="BF52"/>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -3901,7 +3988,7 @@
       <c r="BE53"/>
       <c r="BF53"/>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3961,7 +4048,7 @@
       <c r="BE54"/>
       <c r="BF54"/>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -4021,7 +4108,7 @@
       <c r="BE55"/>
       <c r="BF55"/>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -4081,7 +4168,7 @@
       <c r="BE56"/>
       <c r="BF56"/>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -4141,7 +4228,7 @@
       <c r="BE57"/>
       <c r="BF57"/>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -4201,7 +4288,7 @@
       <c r="BE58"/>
       <c r="BF58"/>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -4261,7 +4348,7 @@
       <c r="BE59"/>
       <c r="BF59"/>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -4321,7 +4408,7 @@
       <c r="BE60"/>
       <c r="BF60"/>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -4381,7 +4468,7 @@
       <c r="BE61"/>
       <c r="BF61"/>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -4441,7 +4528,7 @@
       <c r="BE62"/>
       <c r="BF62"/>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -4501,7 +4588,7 @@
       <c r="BE63"/>
       <c r="BF63"/>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -4561,7 +4648,7 @@
       <c r="BE64"/>
       <c r="BF64"/>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -4621,7 +4708,7 @@
       <c r="BE65"/>
       <c r="BF65"/>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -4681,7 +4768,7 @@
       <c r="BE66"/>
       <c r="BF66"/>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -4741,7 +4828,7 @@
       <c r="BE67"/>
       <c r="BF67"/>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -4801,7 +4888,7 @@
       <c r="BE68"/>
       <c r="BF68"/>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -4861,7 +4948,7 @@
       <c r="BE69"/>
       <c r="BF69"/>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -4921,7 +5008,7 @@
       <c r="BE70"/>
       <c r="BF70"/>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -4981,7 +5068,7 @@
       <c r="BE71"/>
       <c r="BF71"/>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -5016,7 +5103,7 @@
       <c r="AF72"/>
       <c r="AG72"/>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -5051,7 +5138,7 @@
       <c r="AF73"/>
       <c r="AG73"/>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5086,7 +5173,7 @@
       <c r="AF74"/>
       <c r="AG74"/>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -5121,7 +5208,7 @@
       <c r="AF75"/>
       <c r="AG75"/>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -5156,7 +5243,7 @@
       <c r="AF76"/>
       <c r="AG76"/>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -5191,7 +5278,7 @@
       <c r="AF77"/>
       <c r="AG77"/>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -5226,7 +5313,7 @@
       <c r="AF78"/>
       <c r="AG78"/>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -5261,7 +5348,7 @@
       <c r="AF79"/>
       <c r="AG79"/>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -5296,7 +5383,7 @@
       <c r="AF80"/>
       <c r="AG80"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -5331,7 +5418,7 @@
       <c r="AF81"/>
       <c r="AG81"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -5366,7 +5453,7 @@
       <c r="AF82"/>
       <c r="AG82"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -5401,7 +5488,7 @@
       <c r="AF83"/>
       <c r="AG83"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -5436,7 +5523,7 @@
       <c r="AF84"/>
       <c r="AG84"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -5471,7 +5558,7 @@
       <c r="AF85"/>
       <c r="AG85"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -5506,7 +5593,7 @@
       <c r="AF86"/>
       <c r="AG86"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -5541,7 +5628,7 @@
       <c r="AF87"/>
       <c r="AG87"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -5576,7 +5663,7 @@
       <c r="AF88"/>
       <c r="AG88"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -5611,7 +5698,7 @@
       <c r="AF89"/>
       <c r="AG89"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -5646,7 +5733,7 @@
       <c r="AF90"/>
       <c r="AG90"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -5681,7 +5768,7 @@
       <c r="AF91"/>
       <c r="AG91"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -5716,7 +5803,7 @@
       <c r="AF92"/>
       <c r="AG92"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -5751,7 +5838,7 @@
       <c r="AF93"/>
       <c r="AG93"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -5786,7 +5873,7 @@
       <c r="AF94"/>
       <c r="AG94"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -5821,7 +5908,7 @@
       <c r="AF95"/>
       <c r="AG95"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -5856,7 +5943,7 @@
       <c r="AF96"/>
       <c r="AG96"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -5891,7 +5978,7 @@
       <c r="AF97"/>
       <c r="AG97"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -5926,7 +6013,7 @@
       <c r="AF98"/>
       <c r="AG98"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -5961,7 +6048,7 @@
       <c r="AF99"/>
       <c r="AG99"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -5996,7 +6083,7 @@
       <c r="AF100"/>
       <c r="AG100"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -6031,7 +6118,7 @@
       <c r="AF101"/>
       <c r="AG101"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -6066,7 +6153,7 @@
       <c r="AF102"/>
       <c r="AG102"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -6101,7 +6188,7 @@
       <c r="AF103"/>
       <c r="AG103"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -6136,7 +6223,7 @@
       <c r="AF104"/>
       <c r="AG104"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -6171,7 +6258,7 @@
       <c r="AF105"/>
       <c r="AG105"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -6206,7 +6293,7 @@
       <c r="AF106"/>
       <c r="AG106"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -6241,7 +6328,7 @@
       <c r="AF107"/>
       <c r="AG107"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -6276,7 +6363,7 @@
       <c r="AF108"/>
       <c r="AG108"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -6311,7 +6398,7 @@
       <c r="AF109"/>
       <c r="AG109"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -6346,7 +6433,7 @@
       <c r="AF110"/>
       <c r="AG110"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -6381,7 +6468,7 @@
       <c r="AF111"/>
       <c r="AG111"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -6416,7 +6503,7 @@
       <c r="AF112"/>
       <c r="AG112"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -6451,7 +6538,7 @@
       <c r="AF113"/>
       <c r="AG113"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -6486,7 +6573,7 @@
       <c r="AF114"/>
       <c r="AG114"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -6521,7 +6608,7 @@
       <c r="AF115"/>
       <c r="AG115"/>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -6556,7 +6643,7 @@
       <c r="AF116"/>
       <c r="AG116"/>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -6591,7 +6678,7 @@
       <c r="AF117"/>
       <c r="AG117"/>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -6626,7 +6713,7 @@
       <c r="AF118"/>
       <c r="AG118"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -6661,7 +6748,7 @@
       <c r="AF119"/>
       <c r="AG119"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -6714,26 +6801,26 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="2.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6741,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -6749,7 +6836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -6757,7 +6844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -6765,7 +6852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -6773,7 +6860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -6781,7 +6868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -6789,7 +6876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -6797,7 +6884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D4A3C3-EAA0-49F8-88EE-5E92328F6FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AF6BD6-C4E1-4953-B068-26F04D33A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="134">
   <si>
     <t>Columna</t>
   </si>
@@ -204,9 +204,6 @@
     <t>HT04</t>
   </si>
   <si>
-    <t>HT05</t>
-  </si>
-  <si>
     <t>HT07</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>Sprint 01</t>
+  </si>
+  <si>
+    <t>HT05-HT06</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -680,22 +680,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDED00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5DC460"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFDED00"/>
+      <color rgb="FF5DC460"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -996,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,8 +1117,8 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="O4"/>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -1112,37 +1132,37 @@
         <v>48</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="N5"/>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1157,35 +1177,35 @@
         <v>49</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6"/>
       <c r="O6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="25" t="s">
-        <v>121</v>
+      <c r="P6" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="Q6"/>
       <c r="R6"/>
@@ -1200,11 +1220,11 @@
         <v>50</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
@@ -1214,21 +1234,21 @@
         <v>36</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="15">
         <v>2</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N7"/>
       <c r="O7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="25" t="s">
-        <v>124</v>
+      <c r="P7" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
@@ -1240,14 +1260,14 @@
     </row>
     <row r="8" spans="2:58" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
@@ -1257,21 +1277,21 @@
         <v>36</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="15">
         <v>3</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8"/>
       <c r="O8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="25" t="s">
-        <v>125</v>
+      <c r="P8" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
@@ -1286,11 +1306,11 @@
         <v>51</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
@@ -1300,21 +1320,21 @@
         <v>36</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="15">
         <v>4</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N9"/>
       <c r="O9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>126</v>
+      <c r="P9" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -1325,19 +1345,22 @@
       <c r="W9"/>
     </row>
     <row r="10" spans="2:58" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="K10"/>
       <c r="L10" s="15">
         <v>5</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10"/>
       <c r="O10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="25" t="s">
-        <v>127</v>
+      <c r="P10" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
@@ -1352,11 +1375,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
@@ -1366,7 +1389,7 @@
         <v>36</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
@@ -1375,8 +1398,8 @@
       <c r="O11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="25" t="s">
-        <v>128</v>
+      <c r="P11" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
@@ -1391,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="9" t="s">
@@ -1405,15 +1428,15 @@
         <v>36</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12"/>
       <c r="N12"/>
       <c r="O12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="25" t="s">
-        <v>129</v>
+      <c r="P12" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
@@ -1428,7 +1451,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="9" t="s">
@@ -1442,7 +1465,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -1451,8 +1474,8 @@
       <c r="O13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="25" t="s">
-        <v>130</v>
+      <c r="P13" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1467,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
@@ -1481,7 +1504,7 @@
         <v>36</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -1490,8 +1513,8 @@
       <c r="O14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="25" t="s">
-        <v>131</v>
+      <c r="P14" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1506,7 +1529,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
@@ -1520,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -1541,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
@@ -1555,7 +1578,7 @@
         <v>36</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -1611,10 +1634,12 @@
         <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>40</v>
@@ -1623,7 +1648,7 @@
         <v>36</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -1679,7 +1704,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="9" t="s">
@@ -1693,7 +1718,7 @@
         <v>36</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -1749,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="9" t="s">
@@ -1763,7 +1788,7 @@
         <v>36</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -1819,7 +1844,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
@@ -1833,7 +1858,7 @@
         <v>36</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -1886,10 +1911,10 @@
     </row>
     <row r="21" spans="1:58" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
@@ -1903,7 +1928,7 @@
         <v>36</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -1959,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
@@ -1973,7 +1998,7 @@
         <v>36</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -2030,10 +2055,12 @@
         <v>30</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
         <v>42</v>
@@ -2042,7 +2069,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -2097,10 +2124,10 @@
     <row r="24" spans="1:58" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -2114,7 +2141,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -2171,8 +2198,8 @@
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>92</v>
+      <c r="C25" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="9" t="s">
@@ -2186,7 +2213,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -2244,7 +2271,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="9" t="s">
@@ -2258,7 +2285,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -2315,8 +2342,8 @@
       <c r="B27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>102</v>
+      <c r="C27" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="9" t="s">
@@ -2324,13 +2351,13 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -2385,10 +2412,10 @@
     <row r="28" spans="1:58" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9" t="s">
@@ -2396,13 +2423,13 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -2460,7 +2487,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="9" t="s">
@@ -2468,13 +2495,13 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -2529,22 +2556,24 @@
     <row r="30" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -2599,10 +2628,10 @@
     <row r="31" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9" t="s">
@@ -2610,13 +2639,13 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -6788,6 +6817,16 @@
     <sortCondition ref="G4:G20"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="E5:E31">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>E5="Finalizado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E31">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>E5="Pendiente"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AF6BD6-C4E1-4953-B068-26F04D33A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E48631-3D47-4C1B-8301-9E60776827D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="158">
   <si>
     <t>Columna</t>
   </si>
@@ -390,21 +390,6 @@
     <t>Diseñar y desarrollar interfaces de usuario para todas las funcionalidades, asegurando la usabilidad y accesibilidad. Realizar pruebas de usabilidad con usuarios reales para iterar y mejorar el diseño.</t>
   </si>
   <si>
-    <t>Sprint 10</t>
-  </si>
-  <si>
-    <t>Sprint 11</t>
-  </si>
-  <si>
-    <t>Sprint 12</t>
-  </si>
-  <si>
-    <t>Sprint 13</t>
-  </si>
-  <si>
-    <t>Sprint 14</t>
-  </si>
-  <si>
     <t>Finalizado</t>
   </si>
   <si>
@@ -448,13 +433,100 @@
   </si>
   <si>
     <t>HT05-HT06</t>
+  </si>
+  <si>
+    <t>Definir las activiades que se va llevar a cabo en cada proceso</t>
+  </si>
+  <si>
+    <t>DBMS</t>
+  </si>
+  <si>
+    <t>Entorno Desarrollo</t>
+  </si>
+  <si>
+    <t>Endpoints CRUD</t>
+  </si>
+  <si>
+    <t>Autenticación</t>
+  </si>
+  <si>
+    <t>Diagrama de Actividades</t>
+  </si>
+  <si>
+    <t>Definición de los diagrama de actividades</t>
+  </si>
+  <si>
+    <t>Inicio Sesión Admin</t>
+  </si>
+  <si>
+    <t>Inicio Sesión Negocio</t>
+  </si>
+  <si>
+    <t>Framework. Lenguaje, herramientas</t>
+  </si>
+  <si>
+    <t>Registro Ciudadano</t>
+  </si>
+  <si>
+    <t>Inicio Sesión Ciudadano</t>
+  </si>
+  <si>
+    <t>Gestión Negocios</t>
+  </si>
+  <si>
+    <t>Gestión Ofertas</t>
+  </si>
+  <si>
+    <t>Visualizar Ofertas</t>
+  </si>
+  <si>
+    <t>Registro Ciudadanos en Negocio</t>
+  </si>
+  <si>
+    <t>Registro Cantidad Cliente</t>
+  </si>
+  <si>
+    <t>Visualizar Ciudadanos de Negocio</t>
+  </si>
+  <si>
+    <t>Parametrización Greencoins</t>
+  </si>
+  <si>
+    <t>Sistema de Parametrización Greencoins</t>
+  </si>
+  <si>
+    <t>Ingreso Ofertas</t>
+  </si>
+  <si>
+    <t>Geolocalización</t>
+  </si>
+  <si>
+    <t>Ingresar Puntos Verdes</t>
+  </si>
+  <si>
+    <t>Visualizar Puntos Verdes</t>
+  </si>
+  <si>
+    <t>Historial Reciclaje</t>
+  </si>
+  <si>
+    <t>Sistema de Notificaciones</t>
+  </si>
+  <si>
+    <t>Recibir Notificaciones</t>
+  </si>
+  <si>
+    <t>API Restful</t>
+  </si>
+  <si>
+    <t>Interfaces Intuitivas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +587,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -622,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -638,9 +734,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,12 +741,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -670,24 +757,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,14 +805,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFDED00"/>
+          <bgColor rgb="FF5DC460"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF5DC460"/>
+          <bgColor rgb="FFFDED00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1016,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,9 +1140,11 @@
     <col min="8" max="8" width="9.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="73" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="2"/>
-    <col min="13" max="13" width="73.77734375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="11.44140625" style="2"/>
+    <col min="11" max="11" width="4.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="86.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="2"/>
     <col min="16" max="16" width="24.88671875" style="2" customWidth="1"/>
     <col min="17" max="16384" width="11.44140625" style="2"/>
   </cols>
@@ -1128,41 +1238,43 @@
       <c r="W4"/>
     </row>
     <row r="5" spans="2:58" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="8">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="27" t="s">
         <v>65</v>
       </c>
       <c r="K5"/>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="14" t="s">
         <v>58</v>
       </c>
       <c r="N5"/>
-      <c r="O5" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>122</v>
+      <c r="O5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1173,39 +1285,43 @@
       <c r="W5"/>
     </row>
     <row r="6" spans="2:58" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="9"/>
+      <c r="D6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="27" t="s">
         <v>67</v>
       </c>
       <c r="K6"/>
-      <c r="L6" s="15">
+      <c r="L6" s="12">
         <v>1</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="N6"/>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>120</v>
+      <c r="P6" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="Q6"/>
       <c r="R6"/>
@@ -1216,39 +1332,43 @@
       <c r="W6"/>
     </row>
     <row r="7" spans="2:58" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="D7" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
       <c r="G7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="27" t="s">
         <v>69</v>
       </c>
       <c r="K7"/>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
         <v>2</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="11" t="s">
         <v>60</v>
       </c>
       <c r="N7"/>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>123</v>
+      <c r="P7" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
@@ -1258,40 +1378,44 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="2:58" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="9"/>
+    <row r="8" spans="2:58" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="27" t="s">
         <v>74</v>
       </c>
       <c r="K8"/>
-      <c r="L8" s="15">
+      <c r="L8" s="12">
         <v>3</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="11" t="s">
         <v>61</v>
       </c>
       <c r="N8"/>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="24" t="s">
-        <v>124</v>
+      <c r="P8" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
@@ -1301,40 +1425,42 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="2:58" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="9"/>
+    <row r="9" spans="2:58" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16"/>
+      <c r="C9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>73</v>
+      <c r="I9" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="K9"/>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>4</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="11" t="s">
         <v>62</v>
       </c>
       <c r="N9"/>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="24" t="s">
-        <v>125</v>
+      <c r="P9" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -1344,23 +1470,42 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="2:58" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="9" t="s">
-        <v>119</v>
+    <row r="10" spans="2:58" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="K10"/>
-      <c r="L10" s="15">
+      <c r="L10" s="12">
         <v>5</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N10"/>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="24" t="s">
-        <v>126</v>
+      <c r="P10" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
@@ -1371,35 +1516,37 @@
       <c r="W10"/>
     </row>
     <row r="11" spans="2:58" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="D11" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="19" t="s">
         <v>71</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="24" t="s">
-        <v>127</v>
+      <c r="P11" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
@@ -1409,34 +1556,36 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="2:58" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="21" t="s">
         <v>85</v>
       </c>
       <c r="K12"/>
       <c r="N12"/>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="24" t="s">
-        <v>128</v>
+      <c r="P12" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
@@ -1446,36 +1595,38 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="2:58" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:58" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="21" t="s">
         <v>98</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="24" t="s">
-        <v>129</v>
+      <c r="P13" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1485,36 +1636,38 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="2:58" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:58" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="27" t="s">
         <v>71</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="24" t="s">
-        <v>130</v>
+      <c r="P14" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1524,25 +1677,27 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="2:58" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:58" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="19" t="s">
         <v>76</v>
       </c>
       <c r="K15"/>
@@ -1560,36 +1715,30 @@
       <c r="W15"/>
     </row>
     <row r="16" spans="2:58" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="19" t="s">
         <v>78</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
@@ -1631,34 +1780,28 @@
     </row>
     <row r="17" spans="1:58" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>108</v>
+      <c r="I17" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
@@ -1701,24 +1844,26 @@
     </row>
     <row r="18" spans="1:58" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>87</v>
+      <c r="I18" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -1769,26 +1914,28 @@
       <c r="BE18"/>
       <c r="BF18"/>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9" t="s">
+    <row r="19" spans="1:58" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>89</v>
+      <c r="I19" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -1839,37 +1986,31 @@
       <c r="BE19"/>
       <c r="BF19"/>
     </row>
-    <row r="20" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+    <row r="20" spans="1:58" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>94</v>
+      <c r="I20" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
@@ -1909,26 +2050,28 @@
       <c r="BE20"/>
       <c r="BF20"/>
     </row>
-    <row r="21" spans="1:58" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+    <row r="21" spans="1:58" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -1980,25 +2123,27 @@
       <c r="BF21"/>
     </row>
     <row r="22" spans="1:58" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>82</v>
+      <c r="I22" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -2050,26 +2195,28 @@
       <c r="BE22"/>
       <c r="BF22"/>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>96</v>
+      <c r="I23" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -2121,26 +2268,28 @@
       <c r="BE23"/>
       <c r="BF23"/>
     </row>
-    <row r="24" spans="1:58" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="19" t="s">
         <v>90</v>
       </c>
       <c r="J24"/>
@@ -2195,24 +2344,26 @@
     </row>
     <row r="25" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="29" t="s">
         <v>92</v>
       </c>
       <c r="J25"/>
@@ -2265,26 +2416,28 @@
       <c r="BE25"/>
       <c r="BF25"/>
     </row>
-    <row r="26" spans="1:58" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="29" t="s">
         <v>100</v>
       </c>
       <c r="J26"/>
@@ -2339,24 +2492,26 @@
     </row>
     <row r="27" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="29" t="s">
         <v>102</v>
       </c>
       <c r="J27"/>
@@ -2409,26 +2564,28 @@
       <c r="BE27"/>
       <c r="BF27"/>
     </row>
-    <row r="28" spans="1:58" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="29" t="s">
         <v>104</v>
       </c>
       <c r="J28"/>
@@ -2481,26 +2638,28 @@
       <c r="BE28"/>
       <c r="BF28"/>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="29" t="s">
         <v>106</v>
       </c>
       <c r="J29"/>
@@ -2555,24 +2714,26 @@
     </row>
     <row r="30" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A30"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="27" t="s">
         <v>112</v>
       </c>
       <c r="J30"/>
@@ -2627,24 +2788,26 @@
     </row>
     <row r="31" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A31"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="27" t="s">
         <v>113</v>
       </c>
       <c r="J31"/>
@@ -6818,13 +6981,11 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E5:E31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>E5="Pendiente"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>E5="Finalizado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E31">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>E5="Pendiente"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6836,7 +6997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E48631-3D47-4C1B-8301-9E60776827D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BCE08E-FF4D-42EB-AE22-11FC9FD52E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,9 +1481,11 @@
         <v>133</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>40</v>
       </c>
@@ -1526,9 +1528,11 @@
         <v>136</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>40</v>
       </c>
@@ -1567,9 +1571,11 @@
         <v>137</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>40</v>
       </c>
@@ -1606,9 +1612,11 @@
         <v>139</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
       <c r="G13" s="7" t="s">
         <v>40</v>
       </c>
@@ -1647,9 +1655,11 @@
         <v>140</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
       </c>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BCE08E-FF4D-42EB-AE22-11FC9FD52E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{81BCE08E-FF4D-42EB-AE22-11FC9FD52E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDD900EC-3B39-456F-8A5C-286B1DFBB624}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1124,32 +1124,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="63" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
     <col min="9" max="9" width="73" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="86.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.08984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="86.90625" style="2" customWidth="1"/>
     <col min="14" max="14" width="3" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="2"/>
-    <col min="16" max="16" width="24.88671875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="11.44140625" style="2"/>
+    <col min="15" max="15" width="11.453125" style="2"/>
+    <col min="16" max="16" width="24.90625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:58" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:58" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="2:58" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:58" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1183,7 +1183,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:58" x14ac:dyDescent="0.35">
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1198,7 +1198,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:58" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:58" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="2:58" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:58" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="2:58" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:58" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="2:58" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:58" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="2:58" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:58" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8" t="s">
         <v>128</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="2:58" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:58" ht="52.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="16"/>
       <c r="C9" s="20" t="s">
         <v>135</v>
@@ -1470,7 +1470,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="2:58" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:58" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="2:58" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:58" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="2:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="2:58" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:58" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="2:58" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:58" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="2:58" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:58" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>141</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
@@ -1724,7 +1724,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="2:58" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:58" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>142</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
@@ -1788,7 +1788,7 @@
       <c r="BE16"/>
       <c r="BF16"/>
     </row>
-    <row r="17" spans="1:58" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>36</v>
@@ -1852,7 +1852,7 @@
       <c r="BE17"/>
       <c r="BF17"/>
     </row>
-    <row r="18" spans="1:58" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>36</v>
@@ -1924,7 +1924,7 @@
       <c r="BE18"/>
       <c r="BF18"/>
     </row>
-    <row r="19" spans="1:58" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>36</v>
@@ -1996,7 +1996,7 @@
       <c r="BE19"/>
       <c r="BF19"/>
     </row>
-    <row r="20" spans="1:58" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>52</v>
       </c>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>36</v>
@@ -2060,7 +2060,7 @@
       <c r="BE20"/>
       <c r="BF20"/>
     </row>
-    <row r="21" spans="1:58" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>36</v>
@@ -2132,7 +2132,7 @@
       <c r="BE21"/>
       <c r="BF21"/>
     </row>
-    <row r="22" spans="1:58" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>36</v>
@@ -2205,7 +2205,7 @@
       <c r="BE22"/>
       <c r="BF22"/>
     </row>
-    <row r="23" spans="1:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="BE23"/>
       <c r="BF23"/>
     </row>
-    <row r="24" spans="1:58" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" ht="49.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24" s="8" t="s">
         <v>54</v>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>36</v>
@@ -2352,7 +2352,7 @@
       <c r="BE24"/>
       <c r="BF24"/>
     </row>
-    <row r="25" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25" s="10" t="s">
         <v>28</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>36</v>
@@ -2426,7 +2426,7 @@
       <c r="BE25"/>
       <c r="BF25"/>
     </row>
-    <row r="26" spans="1:58" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26" s="10" t="s">
         <v>33</v>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>36</v>
@@ -2500,7 +2500,7 @@
       <c r="BE26"/>
       <c r="BF26"/>
     </row>
-    <row r="27" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27" s="10" t="s">
         <v>34</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>36</v>
@@ -2574,7 +2574,7 @@
       <c r="BE27"/>
       <c r="BF27"/>
     </row>
-    <row r="28" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28" s="10" t="s">
         <v>55</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>36</v>
@@ -2648,7 +2648,7 @@
       <c r="BE28"/>
       <c r="BF28"/>
     </row>
-    <row r="29" spans="1:58" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29" s="10" t="s">
         <v>44</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>36</v>
@@ -2722,7 +2722,7 @@
       <c r="BE29"/>
       <c r="BF29"/>
     </row>
-    <row r="30" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30" s="15" t="s">
         <v>56</v>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>36</v>
@@ -2796,7 +2796,7 @@
       <c r="BE30"/>
       <c r="BF30"/>
     </row>
-    <row r="31" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31" s="15" t="s">
         <v>109</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>36</v>
@@ -2870,7 +2870,7 @@
       <c r="BE31"/>
       <c r="BF31"/>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2930,7 +2930,7 @@
       <c r="BE32"/>
       <c r="BF32"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2990,7 +2990,7 @@
       <c r="BE33"/>
       <c r="BF33"/>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -3050,7 +3050,7 @@
       <c r="BE34"/>
       <c r="BF34"/>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3110,7 +3110,7 @@
       <c r="BE35"/>
       <c r="BF35"/>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -3170,7 +3170,7 @@
       <c r="BE36"/>
       <c r="BF36"/>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -3230,7 +3230,7 @@
       <c r="BE37"/>
       <c r="BF37"/>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3290,7 +3290,7 @@
       <c r="BE38"/>
       <c r="BF38"/>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -3350,7 +3350,7 @@
       <c r="BE39"/>
       <c r="BF39"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -3410,7 +3410,7 @@
       <c r="BE40"/>
       <c r="BF40"/>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -3470,7 +3470,7 @@
       <c r="BE41"/>
       <c r="BF41"/>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -3530,7 +3530,7 @@
       <c r="BE42"/>
       <c r="BF42"/>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -3590,7 +3590,7 @@
       <c r="BE43"/>
       <c r="BF43"/>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -3650,7 +3650,7 @@
       <c r="BE44"/>
       <c r="BF44"/>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -3710,7 +3710,7 @@
       <c r="BE45"/>
       <c r="BF45"/>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -3770,7 +3770,7 @@
       <c r="BE46"/>
       <c r="BF46"/>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3830,7 +3830,7 @@
       <c r="BE47"/>
       <c r="BF47"/>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -3890,7 +3890,7 @@
       <c r="BE48"/>
       <c r="BF48"/>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -3950,7 +3950,7 @@
       <c r="BE49"/>
       <c r="BF49"/>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -4010,7 +4010,7 @@
       <c r="BE50"/>
       <c r="BF50"/>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -4070,7 +4070,7 @@
       <c r="BE51"/>
       <c r="BF51"/>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -4130,7 +4130,7 @@
       <c r="BE52"/>
       <c r="BF52"/>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -4190,7 +4190,7 @@
       <c r="BE53"/>
       <c r="BF53"/>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4250,7 +4250,7 @@
       <c r="BE54"/>
       <c r="BF54"/>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -4310,7 +4310,7 @@
       <c r="BE55"/>
       <c r="BF55"/>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -4370,7 +4370,7 @@
       <c r="BE56"/>
       <c r="BF56"/>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -4430,7 +4430,7 @@
       <c r="BE57"/>
       <c r="BF57"/>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -4490,7 +4490,7 @@
       <c r="BE58"/>
       <c r="BF58"/>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -4550,7 +4550,7 @@
       <c r="BE59"/>
       <c r="BF59"/>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -4610,7 +4610,7 @@
       <c r="BE60"/>
       <c r="BF60"/>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -4670,7 +4670,7 @@
       <c r="BE61"/>
       <c r="BF61"/>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -4730,7 +4730,7 @@
       <c r="BE62"/>
       <c r="BF62"/>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -4790,7 +4790,7 @@
       <c r="BE63"/>
       <c r="BF63"/>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -4850,7 +4850,7 @@
       <c r="BE64"/>
       <c r="BF64"/>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -4910,7 +4910,7 @@
       <c r="BE65"/>
       <c r="BF65"/>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -4970,7 +4970,7 @@
       <c r="BE66"/>
       <c r="BF66"/>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -5030,7 +5030,7 @@
       <c r="BE67"/>
       <c r="BF67"/>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -5090,7 +5090,7 @@
       <c r="BE68"/>
       <c r="BF68"/>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -5150,7 +5150,7 @@
       <c r="BE69"/>
       <c r="BF69"/>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -5210,7 +5210,7 @@
       <c r="BE70"/>
       <c r="BF70"/>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -5270,7 +5270,7 @@
       <c r="BE71"/>
       <c r="BF71"/>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -5305,7 +5305,7 @@
       <c r="AF72"/>
       <c r="AG72"/>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -5340,7 +5340,7 @@
       <c r="AF73"/>
       <c r="AG73"/>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5375,7 +5375,7 @@
       <c r="AF74"/>
       <c r="AG74"/>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -5410,7 +5410,7 @@
       <c r="AF75"/>
       <c r="AG75"/>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -5445,7 +5445,7 @@
       <c r="AF76"/>
       <c r="AG76"/>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -5480,7 +5480,7 @@
       <c r="AF77"/>
       <c r="AG77"/>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -5515,7 +5515,7 @@
       <c r="AF78"/>
       <c r="AG78"/>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -5550,7 +5550,7 @@
       <c r="AF79"/>
       <c r="AG79"/>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -5585,7 +5585,7 @@
       <c r="AF80"/>
       <c r="AG80"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -5620,7 +5620,7 @@
       <c r="AF81"/>
       <c r="AG81"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -5655,7 +5655,7 @@
       <c r="AF82"/>
       <c r="AG82"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -5690,7 +5690,7 @@
       <c r="AF83"/>
       <c r="AG83"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -5725,7 +5725,7 @@
       <c r="AF84"/>
       <c r="AG84"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -5760,7 +5760,7 @@
       <c r="AF85"/>
       <c r="AG85"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -5795,7 +5795,7 @@
       <c r="AF86"/>
       <c r="AG86"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -5830,7 +5830,7 @@
       <c r="AF87"/>
       <c r="AG87"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -5865,7 +5865,7 @@
       <c r="AF88"/>
       <c r="AG88"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -5900,7 +5900,7 @@
       <c r="AF89"/>
       <c r="AG89"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -5935,7 +5935,7 @@
       <c r="AF90"/>
       <c r="AG90"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -5970,7 +5970,7 @@
       <c r="AF91"/>
       <c r="AG91"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -6005,7 +6005,7 @@
       <c r="AF92"/>
       <c r="AG92"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -6040,7 +6040,7 @@
       <c r="AF93"/>
       <c r="AG93"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -6075,7 +6075,7 @@
       <c r="AF94"/>
       <c r="AG94"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -6110,7 +6110,7 @@
       <c r="AF95"/>
       <c r="AG95"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -6145,7 +6145,7 @@
       <c r="AF96"/>
       <c r="AG96"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -6180,7 +6180,7 @@
       <c r="AF97"/>
       <c r="AG97"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -6215,7 +6215,7 @@
       <c r="AF98"/>
       <c r="AG98"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -6250,7 +6250,7 @@
       <c r="AF99"/>
       <c r="AG99"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -6285,7 +6285,7 @@
       <c r="AF100"/>
       <c r="AG100"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -6320,7 +6320,7 @@
       <c r="AF101"/>
       <c r="AG101"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -6355,7 +6355,7 @@
       <c r="AF102"/>
       <c r="AG102"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -6390,7 +6390,7 @@
       <c r="AF103"/>
       <c r="AG103"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -6425,7 +6425,7 @@
       <c r="AF104"/>
       <c r="AG104"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -6460,7 +6460,7 @@
       <c r="AF105"/>
       <c r="AG105"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -6495,7 +6495,7 @@
       <c r="AF106"/>
       <c r="AG106"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -6530,7 +6530,7 @@
       <c r="AF107"/>
       <c r="AG107"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -6565,7 +6565,7 @@
       <c r="AF108"/>
       <c r="AG108"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -6600,7 +6600,7 @@
       <c r="AF109"/>
       <c r="AG109"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -6635,7 +6635,7 @@
       <c r="AF110"/>
       <c r="AG110"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -6670,7 +6670,7 @@
       <c r="AF111"/>
       <c r="AG111"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -6705,7 +6705,7 @@
       <c r="AF112"/>
       <c r="AG112"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -6740,7 +6740,7 @@
       <c r="AF113"/>
       <c r="AG113"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -6775,7 +6775,7 @@
       <c r="AF114"/>
       <c r="AG114"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -6810,7 +6810,7 @@
       <c r="AF115"/>
       <c r="AG115"/>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -6845,7 +6845,7 @@
       <c r="AF116"/>
       <c r="AG116"/>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -6880,7 +6880,7 @@
       <c r="AF117"/>
       <c r="AG117"/>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -6915,7 +6915,7 @@
       <c r="AF118"/>
       <c r="AG118"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -6950,7 +6950,7 @@
       <c r="AF119"/>
       <c r="AG119"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -7011,26 +7011,26 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{81BCE08E-FF4D-42EB-AE22-11FC9FD52E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDD900EC-3B39-456F-8A5C-286B1DFBB624}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{81BCE08E-FF4D-42EB-AE22-11FC9FD52E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608A0C63-C4C1-4669-953B-09B117E057CA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="159">
   <si>
     <t>Columna</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>Interfaces Intuitivas</t>
+  </si>
+  <si>
+    <t>rec_grenc</t>
   </si>
 </sst>
 </file>
@@ -835,6 +838,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1124,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="58" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1801,7 +1808,9 @@
       <c r="E17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>41</v>
       </c>
@@ -1865,7 +1874,9 @@
       <c r="E18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="G18" s="7" t="s">
         <v>41</v>
       </c>
@@ -2007,7 +2018,7 @@
         <v>148</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="7" t="s">
@@ -2071,7 +2082,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="7" t="s">

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{81BCE08E-FF4D-42EB-AE22-11FC9FD52E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608A0C63-C4C1-4669-953B-09B117E057CA}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{81BCE08E-FF4D-42EB-AE22-11FC9FD52E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0607329B-3C90-43F6-B494-025224FAFADF}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="58" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1806,7 +1806,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>158</v>
@@ -1872,7 +1872,7 @@
         <v>145</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>158</v>
@@ -1946,7 +1946,7 @@
         <v>146</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7" t="s">
@@ -2154,7 +2154,7 @@
         <v>149</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -2227,7 +2227,7 @@
         <v>143</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{81BCE08E-FF4D-42EB-AE22-11FC9FD52E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0607329B-3C90-43F6-B494-025224FAFADF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50759C3-BA45-48EB-BAE2-5D7B3BF8F4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -327,9 +327,6 @@
     <t>Con la finalidad de registrar el punto verde de mi negocio en la app.</t>
   </si>
   <si>
-    <t>Necesito visualizar los clientes registrados en mi negocio</t>
-  </si>
-  <si>
     <t>Con la finalidad agilizar el proceso de registro de reciclaje por parte de clientes que han acudido anteriormente.</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>10/07/2024 -16/07/2025</t>
   </si>
   <si>
-    <t>17/07/2024 23/07/2026</t>
-  </si>
-  <si>
     <t>Desarrollo de Endpoints CRUD</t>
   </si>
   <si>
@@ -523,6 +517,12 @@
   </si>
   <si>
     <t>rec_grenc</t>
+  </si>
+  <si>
+    <t>17/07/2024 21/07/2026</t>
+  </si>
+  <si>
+    <t>Necesito visualizar historial de clientes que reciclaron en mi negocio</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -717,11 +717,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -800,6 +813,14 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,10 +857,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,32 +1148,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="63" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="73" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.08984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.08984375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="86.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="86.88671875" style="2" customWidth="1"/>
     <col min="14" max="14" width="3" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" style="2"/>
-    <col min="16" max="16" width="24.90625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="15" max="15" width="11.44140625" style="2"/>
+    <col min="16" max="16" width="24.88671875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:58" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:58" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1191,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="2:58" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:58" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1190,7 +1207,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:58" x14ac:dyDescent="0.3">
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1205,7 +1222,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:58" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:58" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1244,7 +1261,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="2:58" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:58" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
@@ -1252,16 +1269,16 @@
         <v>64</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>36</v>
@@ -1278,10 +1295,10 @@
       </c>
       <c r="N5"/>
       <c r="O5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1291,7 +1308,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="2:58" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:58" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
@@ -1299,16 +1316,16 @@
         <v>66</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>36</v>
@@ -1328,7 +1345,7 @@
         <v>47</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q6"/>
       <c r="R6"/>
@@ -1338,7 +1355,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="2:58" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:58" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
@@ -1346,10 +1363,10 @@
         <v>68</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="8">
         <v>3</v>
@@ -1375,7 +1392,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
@@ -1385,18 +1402,18 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="2:58" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:58" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="8">
         <v>4</v>
@@ -1422,7 +1439,7 @@
         <v>39</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
@@ -1432,16 +1449,16 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="2:58" ht="52.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:58" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
@@ -1453,7 +1470,7 @@
         <v>36</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="12">
@@ -1467,7 +1484,7 @@
         <v>40</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -1477,7 +1494,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="2:58" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:58" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
@@ -1485,10 +1502,10 @@
         <v>72</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="8">
         <v>4</v>
@@ -1514,7 +1531,7 @@
         <v>41</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
@@ -1524,7 +1541,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="2:58" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:58" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1532,10 +1549,10 @@
         <v>84</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="8">
         <v>3</v>
@@ -1557,7 +1574,7 @@
         <v>42</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
@@ -1567,7 +1584,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="2:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1592,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -1598,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
@@ -1608,18 +1625,18 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="2:58" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:58" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -1631,7 +1648,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -1641,7 +1658,7 @@
         <v>37</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1651,7 +1668,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="2:58" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:58" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
@@ -1659,10 +1676,10 @@
         <v>70</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="8">
         <v>3</v>
@@ -1680,11 +1697,11 @@
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="18" t="s">
-        <v>125</v>
+      <c r="P14" s="31" t="s">
+        <v>157</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1694,7 +1711,7 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="2:58" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:58" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1702,10 +1719,10 @@
         <v>75</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
@@ -1717,21 +1734,21 @@
       <c r="I15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="2:58" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:58" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1739,10 +1756,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
@@ -1754,8 +1771,16 @@
       <c r="I16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
@@ -1795,7 +1820,7 @@
       <c r="BE16"/>
       <c r="BF16"/>
     </row>
-    <row r="17" spans="1:58" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:58" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1803,13 +1828,13 @@
         <v>86</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>41</v>
@@ -1820,8 +1845,16 @@
       <c r="I17" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="K17"/>
-      <c r="T17"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="32"/>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -1861,7 +1894,7 @@
       <c r="BE17"/>
       <c r="BF17"/>
     </row>
-    <row r="18" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1869,13 +1902,13 @@
         <v>88</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>41</v>
@@ -1886,16 +1919,16 @@
       <c r="I18" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -1935,18 +1968,18 @@
       <c r="BE18"/>
       <c r="BF18"/>
     </row>
-    <row r="19" spans="1:58" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:58" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7" t="s">
@@ -1956,18 +1989,18 @@
         <v>36</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+        <v>93</v>
+      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -2007,7 +2040,7 @@
       <c r="BE19"/>
       <c r="BF19"/>
     </row>
-    <row r="20" spans="1:58" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:58" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>52</v>
       </c>
@@ -2015,10 +2048,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="7" t="s">
@@ -2071,7 +2104,7 @@
       <c r="BE20"/>
       <c r="BF20"/>
     </row>
-    <row r="21" spans="1:58" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:58" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
@@ -2079,10 +2112,10 @@
         <v>81</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="7" t="s">
@@ -2143,18 +2176,18 @@
       <c r="BE21"/>
       <c r="BF21"/>
     </row>
-    <row r="22" spans="1:58" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:58" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -2164,7 +2197,7 @@
         <v>36</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -2216,18 +2249,18 @@
       <c r="BE22"/>
       <c r="BF22"/>
     </row>
-    <row r="23" spans="1:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
@@ -2237,7 +2270,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -2289,7 +2322,7 @@
       <c r="BE23"/>
       <c r="BF23"/>
     </row>
-    <row r="24" spans="1:58" ht="49.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:58" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24" s="8" t="s">
         <v>54</v>
@@ -2298,10 +2331,10 @@
         <v>53</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
@@ -2363,7 +2396,7 @@
       <c r="BE24"/>
       <c r="BF24"/>
     </row>
-    <row r="25" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" s="10" t="s">
         <v>28</v>
@@ -2372,10 +2405,10 @@
         <v>91</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -2437,19 +2470,19 @@
       <c r="BE25"/>
       <c r="BF25"/>
     </row>
-    <row r="26" spans="1:58" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
@@ -2459,7 +2492,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -2511,19 +2544,19 @@
       <c r="BE26"/>
       <c r="BF26"/>
     </row>
-    <row r="27" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
@@ -2533,7 +2566,7 @@
         <v>36</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -2585,19 +2618,19 @@
       <c r="BE27"/>
       <c r="BF27"/>
     </row>
-    <row r="28" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="7" t="s">
@@ -2607,7 +2640,7 @@
         <v>36</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -2659,16 +2692,16 @@
       <c r="BE28"/>
       <c r="BF28"/>
     </row>
-    <row r="29" spans="1:58" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>35</v>
@@ -2681,7 +2714,7 @@
         <v>36</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -2733,16 +2766,16 @@
       <c r="BE29"/>
       <c r="BF29"/>
     </row>
-    <row r="30" spans="1:58" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>35</v>
@@ -2755,7 +2788,7 @@
         <v>36</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -2807,16 +2840,16 @@
       <c r="BE30"/>
       <c r="BF30"/>
     </row>
-    <row r="31" spans="1:58" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>35</v>
@@ -2829,7 +2862,7 @@
         <v>36</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -2881,7 +2914,7 @@
       <c r="BE31"/>
       <c r="BF31"/>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2941,7 +2974,7 @@
       <c r="BE32"/>
       <c r="BF32"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -3001,7 +3034,7 @@
       <c r="BE33"/>
       <c r="BF33"/>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -3061,7 +3094,7 @@
       <c r="BE34"/>
       <c r="BF34"/>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3121,7 +3154,7 @@
       <c r="BE35"/>
       <c r="BF35"/>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -3181,7 +3214,7 @@
       <c r="BE36"/>
       <c r="BF36"/>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -3241,7 +3274,7 @@
       <c r="BE37"/>
       <c r="BF37"/>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3301,7 +3334,7 @@
       <c r="BE38"/>
       <c r="BF38"/>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -3361,7 +3394,7 @@
       <c r="BE39"/>
       <c r="BF39"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -3421,7 +3454,7 @@
       <c r="BE40"/>
       <c r="BF40"/>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -3481,7 +3514,7 @@
       <c r="BE41"/>
       <c r="BF41"/>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -3541,7 +3574,7 @@
       <c r="BE42"/>
       <c r="BF42"/>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -3601,7 +3634,7 @@
       <c r="BE43"/>
       <c r="BF43"/>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -3661,7 +3694,7 @@
       <c r="BE44"/>
       <c r="BF44"/>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -3721,7 +3754,7 @@
       <c r="BE45"/>
       <c r="BF45"/>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -3781,7 +3814,7 @@
       <c r="BE46"/>
       <c r="BF46"/>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3841,7 +3874,7 @@
       <c r="BE47"/>
       <c r="BF47"/>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -3901,7 +3934,7 @@
       <c r="BE48"/>
       <c r="BF48"/>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -3961,7 +3994,7 @@
       <c r="BE49"/>
       <c r="BF49"/>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -4021,7 +4054,7 @@
       <c r="BE50"/>
       <c r="BF50"/>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -4081,7 +4114,7 @@
       <c r="BE51"/>
       <c r="BF51"/>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -4141,7 +4174,7 @@
       <c r="BE52"/>
       <c r="BF52"/>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -4201,7 +4234,7 @@
       <c r="BE53"/>
       <c r="BF53"/>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4261,7 +4294,7 @@
       <c r="BE54"/>
       <c r="BF54"/>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -4321,7 +4354,7 @@
       <c r="BE55"/>
       <c r="BF55"/>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -4381,7 +4414,7 @@
       <c r="BE56"/>
       <c r="BF56"/>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -4441,7 +4474,7 @@
       <c r="BE57"/>
       <c r="BF57"/>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -4501,7 +4534,7 @@
       <c r="BE58"/>
       <c r="BF58"/>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -4561,7 +4594,7 @@
       <c r="BE59"/>
       <c r="BF59"/>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -4621,7 +4654,7 @@
       <c r="BE60"/>
       <c r="BF60"/>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -4681,7 +4714,7 @@
       <c r="BE61"/>
       <c r="BF61"/>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -4741,7 +4774,7 @@
       <c r="BE62"/>
       <c r="BF62"/>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -4801,7 +4834,7 @@
       <c r="BE63"/>
       <c r="BF63"/>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -4861,7 +4894,7 @@
       <c r="BE64"/>
       <c r="BF64"/>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -4921,7 +4954,7 @@
       <c r="BE65"/>
       <c r="BF65"/>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -4981,7 +5014,7 @@
       <c r="BE66"/>
       <c r="BF66"/>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -5041,7 +5074,7 @@
       <c r="BE67"/>
       <c r="BF67"/>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -5101,7 +5134,7 @@
       <c r="BE68"/>
       <c r="BF68"/>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -5161,7 +5194,7 @@
       <c r="BE69"/>
       <c r="BF69"/>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -5221,7 +5254,7 @@
       <c r="BE70"/>
       <c r="BF70"/>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -5281,7 +5314,7 @@
       <c r="BE71"/>
       <c r="BF71"/>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -5316,7 +5349,7 @@
       <c r="AF72"/>
       <c r="AG72"/>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -5351,7 +5384,7 @@
       <c r="AF73"/>
       <c r="AG73"/>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5386,7 +5419,7 @@
       <c r="AF74"/>
       <c r="AG74"/>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -5421,7 +5454,7 @@
       <c r="AF75"/>
       <c r="AG75"/>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -5456,7 +5489,7 @@
       <c r="AF76"/>
       <c r="AG76"/>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -5491,7 +5524,7 @@
       <c r="AF77"/>
       <c r="AG77"/>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -5526,7 +5559,7 @@
       <c r="AF78"/>
       <c r="AG78"/>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -5561,7 +5594,7 @@
       <c r="AF79"/>
       <c r="AG79"/>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -5596,7 +5629,7 @@
       <c r="AF80"/>
       <c r="AG80"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -5631,7 +5664,7 @@
       <c r="AF81"/>
       <c r="AG81"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -5666,7 +5699,7 @@
       <c r="AF82"/>
       <c r="AG82"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -5701,7 +5734,7 @@
       <c r="AF83"/>
       <c r="AG83"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -5736,7 +5769,7 @@
       <c r="AF84"/>
       <c r="AG84"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -5771,7 +5804,7 @@
       <c r="AF85"/>
       <c r="AG85"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -5806,7 +5839,7 @@
       <c r="AF86"/>
       <c r="AG86"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -5841,7 +5874,7 @@
       <c r="AF87"/>
       <c r="AG87"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -5876,7 +5909,7 @@
       <c r="AF88"/>
       <c r="AG88"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -5911,7 +5944,7 @@
       <c r="AF89"/>
       <c r="AG89"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -5946,7 +5979,7 @@
       <c r="AF90"/>
       <c r="AG90"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -5981,7 +6014,7 @@
       <c r="AF91"/>
       <c r="AG91"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -6016,7 +6049,7 @@
       <c r="AF92"/>
       <c r="AG92"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -6051,7 +6084,7 @@
       <c r="AF93"/>
       <c r="AG93"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -6086,7 +6119,7 @@
       <c r="AF94"/>
       <c r="AG94"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -6121,7 +6154,7 @@
       <c r="AF95"/>
       <c r="AG95"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -6156,7 +6189,7 @@
       <c r="AF96"/>
       <c r="AG96"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -6191,7 +6224,7 @@
       <c r="AF97"/>
       <c r="AG97"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -6226,7 +6259,7 @@
       <c r="AF98"/>
       <c r="AG98"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -6261,7 +6294,7 @@
       <c r="AF99"/>
       <c r="AG99"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -6296,7 +6329,7 @@
       <c r="AF100"/>
       <c r="AG100"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -6331,7 +6364,7 @@
       <c r="AF101"/>
       <c r="AG101"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -6366,7 +6399,7 @@
       <c r="AF102"/>
       <c r="AG102"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -6401,7 +6434,7 @@
       <c r="AF103"/>
       <c r="AG103"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -6436,7 +6469,7 @@
       <c r="AF104"/>
       <c r="AG104"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -6471,7 +6504,7 @@
       <c r="AF105"/>
       <c r="AG105"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -6506,7 +6539,7 @@
       <c r="AF106"/>
       <c r="AG106"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -6541,7 +6574,7 @@
       <c r="AF107"/>
       <c r="AG107"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -6576,7 +6609,7 @@
       <c r="AF108"/>
       <c r="AG108"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -6611,7 +6644,7 @@
       <c r="AF109"/>
       <c r="AG109"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -6646,7 +6679,7 @@
       <c r="AF110"/>
       <c r="AG110"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -6681,7 +6714,7 @@
       <c r="AF111"/>
       <c r="AG111"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -6716,7 +6749,7 @@
       <c r="AF112"/>
       <c r="AG112"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -6751,7 +6784,7 @@
       <c r="AF113"/>
       <c r="AG113"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -6786,7 +6819,7 @@
       <c r="AF114"/>
       <c r="AG114"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -6821,7 +6854,7 @@
       <c r="AF115"/>
       <c r="AG115"/>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -6856,7 +6889,7 @@
       <c r="AF116"/>
       <c r="AG116"/>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -6891,7 +6924,7 @@
       <c r="AF117"/>
       <c r="AG117"/>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -6926,7 +6959,7 @@
       <c r="AF118"/>
       <c r="AG118"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -6961,7 +6994,7 @@
       <c r="AF119"/>
       <c r="AG119"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -7018,30 +7051,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="2.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7049,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -7057,7 +7090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -7065,7 +7098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -7073,7 +7106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -7081,7 +7114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -7089,7 +7122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -7097,7 +7130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -7105,7 +7138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>

--- a/Documentation/Product Backlog - GreenPoint.xlsx
+++ b/Documentation/Product Backlog - GreenPoint.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\OCTAVO SEMESTRE\APLICACIONES INFORMÁTICAS II\GreenPoint\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50759C3-BA45-48EB-BAE2-5D7B3BF8F4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868F658-E956-4009-9609-AA60C80605F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint Backlog" sheetId="3" r:id="rId2"/>
+    <sheet name="Instructivo" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Instructivo!$A$1:$D$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="165">
   <si>
     <t>Columna</t>
   </si>
@@ -153,9 +154,6 @@
     <t>HU14</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -183,9 +181,6 @@
     <t>HU15</t>
   </si>
   <si>
-    <t>HU16</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -216,9 +211,6 @@
     <t>HT09</t>
   </si>
   <si>
-    <t>HT10</t>
-  </si>
-  <si>
     <t>Puntuación</t>
   </si>
   <si>
@@ -354,27 +346,12 @@
     <t>Con la finalidad de poder ver a que puntos verdes he ido a reciclar y la cantida de greencoins que se me han asignado en esos puntos verdes.</t>
   </si>
   <si>
-    <t>Desarrollo del Sistema de Notificaciones</t>
-  </si>
-  <si>
-    <t>Implementar un sistema de notificaciones utilizando Firebase Cloud Messaging (FCM) o similar. Asegurar la entrega eficiente de notificaciones y su integración con el frontend.</t>
-  </si>
-  <si>
-    <t>Necesito recibir notificaciones</t>
-  </si>
-  <si>
-    <t>Con la finalidad de poder estar al día de las nuevas ofertas y puntos verdes.</t>
-  </si>
-  <si>
     <t>Necesito visualizar las ofertas</t>
   </si>
   <si>
     <t>Con la finalidad de poder visualizar las ofertas vigentes para el canje de los greencoins</t>
   </si>
   <si>
-    <t>HT11</t>
-  </si>
-  <si>
     <t>Implementación de la API RESTful</t>
   </si>
   <si>
@@ -423,12 +400,6 @@
     <t>Desarrollo de Endpoints CRUD</t>
   </si>
   <si>
-    <t>Sprint 01</t>
-  </si>
-  <si>
-    <t>HT05-HT06</t>
-  </si>
-  <si>
     <t>Definir las activiades que se va llevar a cabo en cada proceso</t>
   </si>
   <si>
@@ -504,32 +475,80 @@
     <t>Historial Reciclaje</t>
   </si>
   <si>
-    <t>Sistema de Notificaciones</t>
-  </si>
-  <si>
-    <t>Recibir Notificaciones</t>
-  </si>
-  <si>
     <t>API Restful</t>
   </si>
   <si>
     <t>Interfaces Intuitivas</t>
   </si>
   <si>
-    <t>rec_grenc</t>
-  </si>
-  <si>
     <t>17/07/2024 21/07/2026</t>
   </si>
   <si>
     <t>Necesito visualizar historial de clientes que reciclaron en mi negocio</t>
+  </si>
+  <si>
+    <t>HT05</t>
+  </si>
+  <si>
+    <t>HT06</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Necesito iniciar sesión como administrador y poder acceder a las funcionalidades del mismo.</t>
+  </si>
+  <si>
+    <t>Necesito iniciar sesión de mi negocio</t>
+  </si>
+  <si>
+    <t>Necesito iniciar sesión y poder acceder a las funcionalidades del mismo.</t>
+  </si>
+  <si>
+    <t>SPRINT 4</t>
+  </si>
+  <si>
+    <t>SPRINT 5</t>
+  </si>
+  <si>
+    <t>Necesito gestionar los negocios</t>
+  </si>
+  <si>
+    <t>Necesito gestionar ofertas</t>
+  </si>
+  <si>
+    <t>Necesito visualizar el historial de clientes que reciclaron en mi negocio</t>
+  </si>
+  <si>
+    <t>SPRINT 6</t>
+  </si>
+  <si>
+    <t>Necesito parametrización de greencoins</t>
+  </si>
+  <si>
+    <t>SPRINT 7</t>
+  </si>
+  <si>
+    <t>Necesito ingresar la ubicación del punto verde</t>
+  </si>
+  <si>
+    <t>SPRINT 8</t>
+  </si>
+  <si>
+    <t>SPRINT 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,8 +634,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +672,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -734,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -819,8 +858,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF120"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,7 +1215,7 @@
     <col min="9" max="9" width="73" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="4.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" customWidth="1"/>
     <col min="13" max="13" width="86.88671875" style="2" customWidth="1"/>
     <col min="14" max="14" width="3" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" style="2"/>
@@ -1263,42 +1313,42 @@
     </row>
     <row r="5" spans="2:58" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N5"/>
       <c r="O5" s="17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1310,42 +1360,42 @@
     </row>
     <row r="6" spans="2:58" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="12">
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N6"/>
       <c r="O6" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q6"/>
       <c r="R6"/>
@@ -1357,42 +1407,42 @@
     </row>
     <row r="7" spans="2:58" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F7" s="8">
         <v>3</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="12">
         <v>2</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N7"/>
       <c r="O7" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
@@ -1404,42 +1454,42 @@
     </row>
     <row r="8" spans="2:58" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F8" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="12">
         <v>3</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N8"/>
       <c r="O8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
@@ -1452,39 +1502,39 @@
     <row r="9" spans="2:58" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="12">
         <v>4</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N9"/>
       <c r="O9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -1496,42 +1546,42 @@
     </row>
     <row r="10" spans="2:58" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F10" s="8">
         <v>4</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K10"/>
       <c r="L10" s="12">
         <v>5</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N10"/>
       <c r="O10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
@@ -1546,35 +1596,35 @@
         <v>21</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F11" s="8">
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
@@ -1589,33 +1639,33 @@
         <v>25</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K12"/>
       <c r="N12"/>
       <c r="O12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
@@ -1630,35 +1680,35 @@
         <v>31</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1673,35 +1723,35 @@
         <v>32</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F14" s="8">
         <v>3</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1711,39 +1761,41 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="2:58" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:58" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
       <c r="G15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
@@ -1753,34 +1805,28 @@
         <v>23</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
+        <v>75</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
@@ -1825,36 +1871,28 @@
         <v>26</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>105</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="32"/>
+        <v>84</v>
+      </c>
+      <c r="K17"/>
+      <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -1899,36 +1937,36 @@
         <v>27</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>156</v>
+        <v>105</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
+        <v>86</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -1973,34 +2011,36 @@
         <v>29</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
       <c r="G19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -2042,26 +2082,28 @@
     </row>
     <row r="20" spans="1:58" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4</v>
+      </c>
       <c r="G20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2109,23 +2151,25 @@
         <v>24</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
       <c r="G21" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -2181,23 +2225,25 @@
         <v>30</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
       <c r="G22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -2251,26 +2297,28 @@
     </row>
     <row r="23" spans="1:58" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
       <c r="G23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -2325,26 +2373,28 @@
     <row r="24" spans="1:58" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4</v>
+      </c>
       <c r="G24" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -2402,23 +2452,25 @@
         <v>28</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="F25" s="7">
+        <v>3</v>
+      </c>
       <c r="G25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -2476,23 +2528,25 @@
         <v>33</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="F26" s="9">
+        <v>4</v>
+      </c>
       <c r="G26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -2550,23 +2604,25 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2</v>
+      </c>
       <c r="G27" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -2620,26 +2676,28 @@
     </row>
     <row r="28" spans="1:58" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
-      <c r="B28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>102</v>
+      <c r="B28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4</v>
+      </c>
       <c r="G28" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="27" t="s">
         <v>103</v>
       </c>
       <c r="J28"/>
@@ -2692,29 +2750,31 @@
       <c r="BE28"/>
       <c r="BF28"/>
     </row>
-    <row r="29" spans="1:58" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
-      <c r="B29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -2766,30 +2826,8 @@
       <c r="BE29"/>
       <c r="BF29"/>
     </row>
-    <row r="30" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A30"/>
-      <c r="B30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -2840,30 +2878,8 @@
       <c r="BE30"/>
       <c r="BF30"/>
     </row>
-    <row r="31" spans="1:58" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A31"/>
-      <c r="B31" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>112</v>
-      </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -7034,7 +7050,7 @@
     <sortCondition ref="G4:G20"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E5:E31">
+  <conditionalFormatting sqref="E5:E29">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>E5="Pendiente"</formula>
     </cfRule>
@@ -7048,10 +7064,637 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15781DD-9345-4FBC-BA12-9DDB8B35BAA9}">
+  <dimension ref="B1:E52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="2:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+    </row>
+    <row r="46" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+    </row>
+    <row r="51" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="36">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B24:E24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
